--- a/results/inference/server/DeepBench_NV_TitanXp.xlsx
+++ b/results/inference/server/DeepBench_NV_TitanXp.xlsx
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>pad_h</t>
-  </si>
-  <si>
-    <t>S (filter height)</t>
-  </si>
-  <si>
-    <t>R (filter width)</t>
   </si>
   <si>
     <t>K  (number of filters)</t>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>Nvidia TitanXp</t>
+  </si>
+  <si>
+    <t>R (filter height)</t>
+  </si>
+  <si>
+    <t>S (filter width)</t>
   </si>
 </sst>
 </file>
@@ -682,44 +682,44 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="B2" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2918,37 +2918,37 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J82" t="s">
+        <v>51</v>
+      </c>
+      <c r="K82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L82" t="s">
+        <v>54</v>
+      </c>
+      <c r="M82" t="s">
         <v>53</v>
-      </c>
-      <c r="K82" t="s">
-        <v>54</v>
-      </c>
-      <c r="L82" t="s">
-        <v>56</v>
-      </c>
-      <c r="M82" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -3832,30 +3832,30 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" spans="1:18">
       <c r="C110" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H110" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I110" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="J110" t="s">
         <v>10</v>
@@ -3870,19 +3870,19 @@
         <v>7</v>
       </c>
       <c r="N110" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O110" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P110" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q110" t="s">
         <v>29</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="R110" t="s">
         <v>31</v>
-      </c>
-      <c r="R110" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -3923,16 +3923,16 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="O111" s="2">
-        <f>(D111-I111+1+2*J111)/L111</f>
-        <v>71</v>
+        <f>(D111-H111+1+2*J111)/L111</f>
+        <v>78.5</v>
       </c>
       <c r="P111" s="2">
-        <f>(C111-H111+1+2*K111)/M111</f>
-        <v>348</v>
+        <f>(C111-I111+1+2*K111)/M111</f>
+        <v>340.5</v>
       </c>
       <c r="Q111" s="3">
         <f>(2*O111*P111*E111*F111*G111*H111*I111)/(N111/1000)/10^12</f>
-        <v>0.25546235864297251</v>
+        <v>0.27636058158319871</v>
       </c>
       <c r="R111">
         <v>1</v>
@@ -3976,16 +3976,16 @@
         <v>1.052</v>
       </c>
       <c r="O112" s="2">
-        <f t="shared" ref="O112:O175" si="7">(D112-I112+1+2*J112)/L112</f>
-        <v>71</v>
+        <f t="shared" ref="O112:O175" si="7">(D112-H112+1+2*J112)/L112</f>
+        <v>78.5</v>
       </c>
       <c r="P112" s="2">
-        <f t="shared" ref="P112:P175" si="8">(C112-H112+1+2*K112)/M112</f>
-        <v>348</v>
+        <f t="shared" ref="P112:P175" si="8">(C112-I112+1+2*K112)/M112</f>
+        <v>340.5</v>
       </c>
       <c r="Q112" s="3">
         <f t="shared" ref="Q112:Q175" si="9">(2*O112*P112*E112*F112*G112*H112*I112)/(N112/1000)/10^12</f>
-        <v>0.30062965779467682</v>
+        <v>0.32522281368821293</v>
       </c>
       <c r="R112">
         <v>1</v>
@@ -4030,15 +4030,15 @@
       </c>
       <c r="O113" s="2">
         <f t="shared" si="7"/>
-        <v>71</v>
+        <v>78.5</v>
       </c>
       <c r="P113" s="2">
         <f t="shared" si="8"/>
-        <v>348</v>
+        <v>340.5</v>
       </c>
       <c r="Q113" s="3">
         <f t="shared" si="9"/>
-        <v>0.31642061030515256</v>
+        <v>0.34230555277638819</v>
       </c>
       <c r="R113">
         <v>1</v>
@@ -4083,15 +4083,15 @@
       </c>
       <c r="O114" s="2">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="P114" s="2">
         <f t="shared" si="8"/>
-        <v>168.5</v>
+        <v>166</v>
       </c>
       <c r="Q114" s="3">
         <f t="shared" si="9"/>
-        <v>8.1608648648648661</v>
+        <v>8.6140540540540549</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -4136,15 +4136,15 @@
       </c>
       <c r="O115" s="2">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="P115" s="2">
         <f t="shared" si="8"/>
-        <v>168.5</v>
+        <v>166</v>
       </c>
       <c r="Q115" s="3">
         <f t="shared" si="9"/>
-        <v>8.4462097902097906</v>
+        <v>8.9152447552447551</v>
       </c>
       <c r="R115">
         <v>1</v>
@@ -4189,15 +4189,15 @@
       </c>
       <c r="O116" s="2">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>37.5</v>
       </c>
       <c r="P116" s="2">
         <f t="shared" si="8"/>
-        <v>168.5</v>
+        <v>166</v>
       </c>
       <c r="Q116" s="3">
         <f t="shared" si="9"/>
-        <v>8.4462097902097906</v>
+        <v>8.9152447552447551</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -7384,11 +7384,11 @@
         <v>0.161</v>
       </c>
       <c r="O176" s="2">
-        <f t="shared" ref="O176:O217" si="10">(D176-I176+1+2*J176)/L176</f>
+        <f t="shared" ref="O176:O217" si="10">(D176-H176+1+2*J176)/L176</f>
         <v>9</v>
       </c>
       <c r="P176" s="2">
-        <f t="shared" ref="P176:P217" si="11">(C176-H176+1+2*K176)/M176</f>
+        <f t="shared" ref="P176:P217" si="11">(C176-I176+1+2*K176)/M176</f>
         <v>41</v>
       </c>
       <c r="Q176" s="3">
@@ -9681,7 +9681,7 @@
         <v>0</v>
       </c>
       <c r="H227" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -10978,39 +10978,39 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7">
         <v>6</v>
@@ -11018,15 +11018,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" s="8">
         <v>367.48</v>
@@ -11034,26 +11034,26 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/results/inference/server/DeepBench_NV_TitanXp.xlsx
+++ b/results/inference/server/DeepBench_NV_TitanXp.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="21060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results - Mixed Precision" sheetId="2" r:id="rId1"/>
@@ -282,9 +282,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -314,18 +332,36 @@
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="30">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -658,7 +694,7 @@
   <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3852,22 +3888,22 @@
         <v>11</v>
       </c>
       <c r="H110" t="s">
+        <v>57</v>
+      </c>
+      <c r="I110" t="s">
         <v>56</v>
       </c>
-      <c r="I110" t="s">
-        <v>57</v>
-      </c>
       <c r="J110" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" t="s">
         <v>10</v>
       </c>
-      <c r="K110" t="s">
-        <v>9</v>
-      </c>
       <c r="L110" t="s">
+        <v>7</v>
+      </c>
+      <c r="M110" t="s">
         <v>8</v>
-      </c>
-      <c r="M110" t="s">
-        <v>7</v>
       </c>
       <c r="N110" t="s">
         <v>28</v>
@@ -3902,10 +3938,10 @@
         <v>32</v>
       </c>
       <c r="H111">
+        <v>20</v>
+      </c>
+      <c r="I111">
         <v>5</v>
-      </c>
-      <c r="I111">
-        <v>20</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -3923,15 +3959,15 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="O111" s="2">
-        <f>(D111-H111+1+2*J111)/L111</f>
+        <f>(D111-I111+1+2*K111)/M111</f>
         <v>78.5</v>
       </c>
       <c r="P111" s="2">
-        <f>(C111-I111+1+2*K111)/M111</f>
+        <f>(C111-H111+1+2*J111)/L111</f>
         <v>340.5</v>
       </c>
       <c r="Q111" s="3">
-        <f>(2*O111*P111*E111*F111*G111*H111*I111)/(N111/1000)/10^12</f>
+        <f>(2*O111*P111*E111*F111*G111*I111*H111)/(N111/1000)/10^12</f>
         <v>0.27636058158319871</v>
       </c>
       <c r="R111">
@@ -3955,10 +3991,10 @@
         <v>32</v>
       </c>
       <c r="H112">
+        <v>20</v>
+      </c>
+      <c r="I112">
         <v>5</v>
-      </c>
-      <c r="I112">
-        <v>20</v>
       </c>
       <c r="J112">
         <v>0</v>
@@ -3976,15 +4012,15 @@
         <v>1.052</v>
       </c>
       <c r="O112" s="2">
-        <f t="shared" ref="O112:O175" si="7">(D112-H112+1+2*J112)/L112</f>
+        <f>(D112-I112+1+2*K112)/M112</f>
         <v>78.5</v>
       </c>
       <c r="P112" s="2">
-        <f t="shared" ref="P112:P175" si="8">(C112-I112+1+2*K112)/M112</f>
+        <f>(C112-H112+1+2*J112)/L112</f>
         <v>340.5</v>
       </c>
       <c r="Q112" s="3">
-        <f t="shared" ref="Q112:Q175" si="9">(2*O112*P112*E112*F112*G112*H112*I112)/(N112/1000)/10^12</f>
+        <f>(2*O112*P112*E112*F112*G112*I112*H112)/(N112/1000)/10^12</f>
         <v>0.32522281368821293</v>
       </c>
       <c r="R112">
@@ -4008,10 +4044,10 @@
         <v>32</v>
       </c>
       <c r="H113">
+        <v>20</v>
+      </c>
+      <c r="I113">
         <v>5</v>
-      </c>
-      <c r="I113">
-        <v>20</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -4029,15 +4065,15 @@
         <v>1.9990000000000001</v>
       </c>
       <c r="O113" s="2">
-        <f t="shared" si="7"/>
+        <f>(D113-I113+1+2*K113)/M113</f>
         <v>78.5</v>
       </c>
       <c r="P113" s="2">
-        <f t="shared" si="8"/>
+        <f>(C113-H113+1+2*J113)/L113</f>
         <v>340.5</v>
       </c>
       <c r="Q113" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O113*P113*E113*F113*G113*I113*H113)/(N113/1000)/10^12</f>
         <v>0.34230555277638819</v>
       </c>
       <c r="R113">
@@ -4061,10 +4097,10 @@
         <v>32</v>
       </c>
       <c r="H114">
+        <v>10</v>
+      </c>
+      <c r="I114">
         <v>5</v>
-      </c>
-      <c r="I114">
-        <v>10</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -4082,15 +4118,15 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="O114" s="2">
-        <f t="shared" si="7"/>
+        <f>(D114-I114+1+2*K114)/M114</f>
         <v>37.5</v>
       </c>
       <c r="P114" s="2">
-        <f t="shared" si="8"/>
+        <f>(C114-H114+1+2*J114)/L114</f>
         <v>166</v>
       </c>
       <c r="Q114" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O114*P114*E114*F114*G114*I114*H114)/(N114/1000)/10^12</f>
         <v>8.6140540540540549</v>
       </c>
       <c r="R114">
@@ -4114,10 +4150,10 @@
         <v>32</v>
       </c>
       <c r="H115">
+        <v>10</v>
+      </c>
+      <c r="I115">
         <v>5</v>
-      </c>
-      <c r="I115">
-        <v>10</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -4135,15 +4171,15 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O115" s="2">
-        <f t="shared" si="7"/>
+        <f>(D115-I115+1+2*K115)/M115</f>
         <v>37.5</v>
       </c>
       <c r="P115" s="2">
-        <f t="shared" si="8"/>
+        <f>(C115-H115+1+2*J115)/L115</f>
         <v>166</v>
       </c>
       <c r="Q115" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O115*P115*E115*F115*G115*I115*H115)/(N115/1000)/10^12</f>
         <v>8.9152447552447551</v>
       </c>
       <c r="R115">
@@ -4167,10 +4203,10 @@
         <v>32</v>
       </c>
       <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="I116">
         <v>5</v>
-      </c>
-      <c r="I116">
-        <v>10</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -4188,15 +4224,15 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="O116" s="2">
-        <f t="shared" si="7"/>
+        <f>(D116-I116+1+2*K116)/M116</f>
         <v>37.5</v>
       </c>
       <c r="P116" s="2">
-        <f t="shared" si="8"/>
+        <f>(C116-H116+1+2*J116)/L116</f>
         <v>166</v>
       </c>
       <c r="Q116" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O116*P116*E116*F116*G116*I116*H116)/(N116/1000)/10^12</f>
         <v>8.9152447552447551</v>
       </c>
       <c r="R116">
@@ -4241,15 +4277,15 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="O117" s="2">
-        <f t="shared" si="7"/>
+        <f>(D117-I117+1+2*K117)/M117</f>
         <v>48</v>
       </c>
       <c r="P117" s="2">
-        <f t="shared" si="8"/>
+        <f>(C117-H117+1+2*J117)/L117</f>
         <v>480</v>
       </c>
       <c r="Q117" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O117*P117*E117*F117*G117*I117*H117)/(N117/1000)/10^12</f>
         <v>0.12519849056603774</v>
       </c>
       <c r="R117">
@@ -4294,15 +4330,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O118" s="2">
-        <f t="shared" si="7"/>
+        <f>(D118-I118+1+2*K118)/M118</f>
         <v>24</v>
       </c>
       <c r="P118" s="2">
-        <f t="shared" si="8"/>
+        <f>(C118-H118+1+2*J118)/L118</f>
         <v>240</v>
       </c>
       <c r="Q118" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O118*P118*E118*F118*G118*I118*H118)/(N118/1000)/10^12</f>
         <v>2.4129163636363637</v>
       </c>
       <c r="R118">
@@ -4347,15 +4383,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O119" s="2">
-        <f t="shared" si="7"/>
+        <f>(D119-I119+1+2*K119)/M119</f>
         <v>12</v>
       </c>
       <c r="P119" s="2">
-        <f t="shared" si="8"/>
+        <f>(C119-H119+1+2*J119)/L119</f>
         <v>120</v>
       </c>
       <c r="Q119" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O119*P119*E119*F119*G119*I119*H119)/(N119/1000)/10^12</f>
         <v>2.7939031578947366</v>
       </c>
       <c r="R119">
@@ -4400,15 +4436,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O120" s="2">
-        <f t="shared" si="7"/>
+        <f>(D120-I120+1+2*K120)/M120</f>
         <v>6</v>
       </c>
       <c r="P120" s="2">
-        <f t="shared" si="8"/>
+        <f>(C120-H120+1+2*J120)/L120</f>
         <v>60</v>
       </c>
       <c r="Q120" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O120*P120*E120*F120*G120*I120*H120)/(N120/1000)/10^12</f>
         <v>2.4129163636363637</v>
       </c>
       <c r="R120">
@@ -4453,15 +4489,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O121" s="2">
-        <f t="shared" si="7"/>
+        <f>(D121-I121+1+2*K121)/M121</f>
         <v>54</v>
       </c>
       <c r="P121" s="2">
-        <f t="shared" si="8"/>
+        <f>(C121-H121+1+2*J121)/L121</f>
         <v>54</v>
       </c>
       <c r="Q121" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O121*P121*E121*F121*G121*I121*H121)/(N121/1000)/10^12</f>
         <v>0.59280564705882344</v>
       </c>
       <c r="R121">
@@ -4506,15 +4542,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O122" s="2">
-        <f t="shared" si="7"/>
+        <f>(D122-I122+1+2*K122)/M122</f>
         <v>54</v>
       </c>
       <c r="P122" s="2">
-        <f t="shared" si="8"/>
+        <f>(C122-H122+1+2*J122)/L122</f>
         <v>54</v>
       </c>
       <c r="Q122" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O122*P122*E122*F122*G122*I122*H122)/(N122/1000)/10^12</f>
         <v>9.7723112727272738</v>
       </c>
       <c r="R122">
@@ -4559,15 +4595,15 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O123" s="2">
-        <f t="shared" si="7"/>
+        <f>(D123-I123+1+2*K123)/M123</f>
         <v>27</v>
       </c>
       <c r="P123" s="2">
-        <f t="shared" si="8"/>
+        <f>(C123-H123+1+2*J123)/L123</f>
         <v>27</v>
       </c>
       <c r="Q123" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O123*P123*E123*F123*G123*I123*H123)/(N123/1000)/10^12</f>
         <v>6.5148741818181817</v>
       </c>
       <c r="R123">
@@ -4612,15 +4648,15 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O124" s="2">
-        <f t="shared" si="7"/>
+        <f>(D124-I124+1+2*K124)/M124</f>
         <v>14</v>
       </c>
       <c r="P124" s="2">
-        <f t="shared" si="8"/>
+        <f>(C124-H124+1+2*J124)/L124</f>
         <v>14</v>
       </c>
       <c r="Q124" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O124*P124*E124*F124*G124*I124*H124)/(N124/1000)/10^12</f>
         <v>3.503197090909091</v>
       </c>
       <c r="R124">
@@ -4665,15 +4701,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O125" s="2">
-        <f t="shared" si="7"/>
+        <f>(D125-I125+1+2*K125)/M125</f>
         <v>7</v>
       </c>
       <c r="P125" s="2">
-        <f t="shared" si="8"/>
+        <f>(C125-H125+1+2*J125)/L125</f>
         <v>7</v>
       </c>
       <c r="Q125" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O125*P125*E125*F125*G125*I125*H125)/(N125/1000)/10^12</f>
         <v>2.064384</v>
       </c>
       <c r="R125">
@@ -4718,15 +4754,15 @@
         <v>0.122</v>
       </c>
       <c r="O126" s="2">
-        <f t="shared" si="7"/>
+        <f>(D126-I126+1+2*K126)/M126</f>
         <v>224</v>
       </c>
       <c r="P126" s="2">
-        <f t="shared" si="8"/>
+        <f>(C126-H126+1+2*J126)/L126</f>
         <v>224</v>
       </c>
       <c r="Q126" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O126*P126*E126*F126*G126*I126*H126)/(N126/1000)/10^12</f>
         <v>1.4213791475409836</v>
       </c>
       <c r="R126">
@@ -4771,15 +4807,15 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="O127" s="2">
-        <f t="shared" si="7"/>
+        <f>(D127-I127+1+2*K127)/M127</f>
         <v>112</v>
       </c>
       <c r="P127" s="2">
-        <f t="shared" si="8"/>
+        <f>(C127-H127+1+2*J127)/L127</f>
         <v>112</v>
       </c>
       <c r="Q127" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O127*P127*E127*F127*G127*I127*H127)/(N127/1000)/10^12</f>
         <v>31.350645152542373</v>
       </c>
       <c r="R127">
@@ -4825,15 +4861,15 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O128" s="2">
-        <f t="shared" si="7"/>
+        <f>(D128-I128+1+2*K128)/M128</f>
         <v>56</v>
       </c>
       <c r="P128" s="2">
-        <f t="shared" si="8"/>
+        <f>(C128-H128+1+2*J128)/L128</f>
         <v>56</v>
       </c>
       <c r="Q128" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O128*P128*E128*F128*G128*I128*H128)/(N128/1000)/10^12</f>
         <v>34.25348266666667</v>
       </c>
       <c r="R128">
@@ -4879,15 +4915,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O129" s="2">
-        <f t="shared" si="7"/>
+        <f>(D129-I129+1+2*K129)/M129</f>
         <v>28</v>
       </c>
       <c r="P129" s="2">
-        <f t="shared" si="8"/>
+        <f>(C129-H129+1+2*J129)/L129</f>
         <v>28</v>
       </c>
       <c r="Q129" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O129*P129*E129*F129*G129*I129*H129)/(N129/1000)/10^12</f>
         <v>33.030144</v>
       </c>
       <c r="R129">
@@ -4932,15 +4968,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O130" s="2">
-        <f t="shared" si="7"/>
+        <f>(D130-I130+1+2*K130)/M130</f>
         <v>14</v>
       </c>
       <c r="P130" s="2">
-        <f t="shared" si="8"/>
+        <f>(C130-H130+1+2*J130)/L130</f>
         <v>14</v>
       </c>
       <c r="Q130" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O130*P130*E130*F130*G130*I130*H130)/(N130/1000)/10^12</f>
         <v>9.156871603960397</v>
       </c>
       <c r="R130">
@@ -4985,15 +5021,15 @@
         <v>0.1</v>
       </c>
       <c r="O131" s="2">
-        <f t="shared" si="7"/>
+        <f>(D131-I131+1+2*K131)/M131</f>
         <v>7</v>
       </c>
       <c r="P131" s="2">
-        <f t="shared" si="8"/>
+        <f>(C131-H131+1+2*J131)/L131</f>
         <v>7</v>
       </c>
       <c r="Q131" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O131*P131*E131*F131*G131*I131*H131)/(N131/1000)/10^12</f>
         <v>2.3121100800000001</v>
       </c>
       <c r="R131">
@@ -5038,15 +5074,15 @@
         <v>0.221</v>
       </c>
       <c r="O132" s="2">
-        <f t="shared" si="7"/>
+        <f>(D132-I132+1+2*K132)/M132</f>
         <v>224</v>
       </c>
       <c r="P132" s="2">
-        <f t="shared" si="8"/>
+        <f>(C132-H132+1+2*J132)/L132</f>
         <v>224</v>
       </c>
       <c r="Q132" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O132*P132*E132*F132*G132*I132*H132)/(N132/1000)/10^12</f>
         <v>1.5693054841628959</v>
       </c>
       <c r="R132">
@@ -5091,15 +5127,15 @@
         <v>0.104</v>
       </c>
       <c r="O133" s="2">
-        <f t="shared" si="7"/>
+        <f>(D133-I133+1+2*K133)/M133</f>
         <v>112</v>
       </c>
       <c r="P133" s="2">
-        <f t="shared" si="8"/>
+        <f>(C133-H133+1+2*J133)/L133</f>
         <v>112</v>
       </c>
       <c r="Q133" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O133*P133*E133*F133*G133*I133*H133)/(N133/1000)/10^12</f>
         <v>35.570924307692316</v>
       </c>
       <c r="R133">
@@ -5145,15 +5181,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O134" s="2">
-        <f t="shared" si="7"/>
+        <f>(D134-I134+1+2*K134)/M134</f>
         <v>56</v>
       </c>
       <c r="P134" s="2">
-        <f t="shared" si="8"/>
+        <f>(C134-H134+1+2*J134)/L134</f>
         <v>56</v>
       </c>
       <c r="Q134" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O134*P134*E134*F134*G134*I134*H134)/(N134/1000)/10^12</f>
         <v>36.627486415841588</v>
       </c>
       <c r="R134">
@@ -5199,15 +5235,15 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O135" s="2">
-        <f t="shared" si="7"/>
+        <f>(D135-I135+1+2*K135)/M135</f>
         <v>28</v>
       </c>
       <c r="P135" s="2">
-        <f t="shared" si="8"/>
+        <f>(C135-H135+1+2*J135)/L135</f>
         <v>28</v>
       </c>
       <c r="Q135" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O135*P135*E135*F135*G135*I135*H135)/(N135/1000)/10^12</f>
         <v>38.535167999999999</v>
       </c>
       <c r="R135">
@@ -5252,15 +5288,15 @@
         <v>0.105</v>
       </c>
       <c r="O136" s="2">
-        <f t="shared" si="7"/>
+        <f>(D136-I136+1+2*K136)/M136</f>
         <v>14</v>
       </c>
       <c r="P136" s="2">
-        <f t="shared" si="8"/>
+        <f>(C136-H136+1+2*J136)/L136</f>
         <v>14</v>
       </c>
       <c r="Q136" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O136*P136*E136*F136*G136*I136*H136)/(N136/1000)/10^12</f>
         <v>17.616076799999998</v>
       </c>
       <c r="R136">
@@ -5305,15 +5341,15 @@
         <v>0.1</v>
       </c>
       <c r="O137" s="2">
-        <f t="shared" si="7"/>
+        <f>(D137-I137+1+2*K137)/M137</f>
         <v>7</v>
       </c>
       <c r="P137" s="2">
-        <f t="shared" si="8"/>
+        <f>(C137-H137+1+2*J137)/L137</f>
         <v>7</v>
       </c>
       <c r="Q137" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O137*P137*E137*F137*G137*I137*H137)/(N137/1000)/10^12</f>
         <v>4.6242201600000001</v>
       </c>
       <c r="R137">
@@ -5358,15 +5394,15 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O138" s="2">
-        <f t="shared" si="7"/>
+        <f>(D138-I138+1+2*K138)/M138</f>
         <v>112</v>
       </c>
       <c r="P138" s="2">
-        <f t="shared" si="8"/>
+        <f>(C138-H138+1+2*J138)/L138</f>
         <v>112</v>
       </c>
       <c r="Q138" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O138*P138*E138*F138*G138*I138*H138)/(N138/1000)/10^12</f>
         <v>1.6277786482758621</v>
       </c>
       <c r="R138">
@@ -5411,15 +5447,15 @@
         <v>0.105</v>
       </c>
       <c r="O139" s="2">
-        <f t="shared" si="7"/>
+        <f>(D139-I139+1+2*K139)/M139</f>
         <v>28</v>
       </c>
       <c r="P139" s="2">
-        <f t="shared" si="8"/>
+        <f>(C139-H139+1+2*J139)/L139</f>
         <v>28</v>
       </c>
       <c r="Q139" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O139*P139*E139*F139*G139*I139*H139)/(N139/1000)/10^12</f>
         <v>2.2937599999999998</v>
       </c>
       <c r="R139">
@@ -5464,15 +5500,15 @@
         <v>1.4E-2</v>
       </c>
       <c r="O140" s="2">
-        <f t="shared" si="7"/>
+        <f>(D140-I140+1+2*K140)/M140</f>
         <v>28</v>
       </c>
       <c r="P140" s="2">
-        <f t="shared" si="8"/>
+        <f>(C140-H140+1+2*J140)/L140</f>
         <v>28</v>
       </c>
       <c r="Q140" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O140*P140*E140*F140*G140*I140*H140)/(N140/1000)/10^12</f>
         <v>1.3762559999999999</v>
       </c>
       <c r="R140">
@@ -5517,15 +5553,15 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O141" s="2">
-        <f t="shared" si="7"/>
+        <f>(D141-I141+1+2*K141)/M141</f>
         <v>14</v>
       </c>
       <c r="P141" s="2">
-        <f t="shared" si="8"/>
+        <f>(C141-H141+1+2*J141)/L141</f>
         <v>14</v>
       </c>
       <c r="Q141" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O141*P141*E141*F141*G141*I141*H141)/(N141/1000)/10^12</f>
         <v>1.7709176470588235</v>
       </c>
       <c r="R141">
@@ -5570,15 +5606,15 @@
         <v>0.02</v>
       </c>
       <c r="O142" s="2">
-        <f t="shared" si="7"/>
+        <f>(D142-I142+1+2*K142)/M142</f>
         <v>14</v>
       </c>
       <c r="P142" s="2">
-        <f t="shared" si="8"/>
+        <f>(C142-H142+1+2*J142)/L142</f>
         <v>14</v>
       </c>
       <c r="Q142" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O142*P142*E142*F142*G142*I142*H142)/(N142/1000)/10^12</f>
         <v>1.9267583999999998</v>
       </c>
       <c r="R142">
@@ -5623,15 +5659,15 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O143" s="2">
-        <f t="shared" si="7"/>
+        <f>(D143-I143+1+2*K143)/M143</f>
         <v>7</v>
       </c>
       <c r="P143" s="2">
-        <f t="shared" si="8"/>
+        <f>(C143-H143+1+2*J143)/L143</f>
         <v>7</v>
       </c>
       <c r="Q143" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O143*P143*E143*F143*G143*I143*H143)/(N143/1000)/10^12</f>
         <v>0.80281599999999997</v>
       </c>
       <c r="R143">
@@ -5676,22 +5712,22 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="O144" s="2">
-        <f t="shared" si="7"/>
+        <f>(D144-I144+1+2*K144)/M144</f>
         <v>7</v>
       </c>
       <c r="P144" s="2">
-        <f t="shared" si="8"/>
+        <f>(C144-H144+1+2*J144)/L144</f>
         <v>7</v>
       </c>
       <c r="Q144" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O144*P144*E144*F144*G144*I144*H144)/(N144/1000)/10^12</f>
         <v>0.62419904306220109</v>
       </c>
       <c r="R144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:18">
+    <row r="145" spans="3:18">
       <c r="C145">
         <v>224</v>
       </c>
@@ -5729,22 +5765,22 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="O145" s="2">
-        <f t="shared" si="7"/>
+        <f>(D145-I145+1+2*K145)/M145</f>
         <v>112</v>
       </c>
       <c r="P145" s="2">
-        <f t="shared" si="8"/>
+        <f>(C145-H145+1+2*J145)/L145</f>
         <v>112</v>
       </c>
       <c r="Q145" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O145*P145*E145*F145*G145*I145*H145)/(N145/1000)/10^12</f>
         <v>1.7291421538461538</v>
       </c>
       <c r="R145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="2:18">
+    <row r="146" spans="3:18">
       <c r="C146">
         <v>28</v>
       </c>
@@ -5782,22 +5818,22 @@
         <v>0.105</v>
       </c>
       <c r="O146" s="2">
-        <f t="shared" si="7"/>
+        <f>(D146-I146+1+2*K146)/M146</f>
         <v>28</v>
       </c>
       <c r="P146" s="2">
-        <f t="shared" si="8"/>
+        <f>(C146-H146+1+2*J146)/L146</f>
         <v>28</v>
       </c>
       <c r="Q146" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O146*P146*E146*F146*G146*I146*H146)/(N146/1000)/10^12</f>
         <v>4.5875199999999996</v>
       </c>
       <c r="R146">
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:18">
+    <row r="147" spans="3:18">
       <c r="C147">
         <v>28</v>
       </c>
@@ -5835,22 +5871,22 @@
         <v>1.4E-2</v>
       </c>
       <c r="O147" s="2">
-        <f t="shared" si="7"/>
+        <f>(D147-I147+1+2*K147)/M147</f>
         <v>28</v>
       </c>
       <c r="P147" s="2">
-        <f t="shared" si="8"/>
+        <f>(C147-H147+1+2*J147)/L147</f>
         <v>28</v>
       </c>
       <c r="Q147" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O147*P147*E147*F147*G147*I147*H147)/(N147/1000)/10^12</f>
         <v>2.7525119999999998</v>
       </c>
       <c r="R147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="2:18">
+    <row r="148" spans="3:18">
       <c r="C148">
         <v>14</v>
       </c>
@@ -5888,22 +5924,22 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O148" s="2">
-        <f t="shared" si="7"/>
+        <f>(D148-I148+1+2*K148)/M148</f>
         <v>14</v>
       </c>
       <c r="P148" s="2">
-        <f t="shared" si="8"/>
+        <f>(C148-H148+1+2*J148)/L148</f>
         <v>14</v>
       </c>
       <c r="Q148" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O148*P148*E148*F148*G148*I148*H148)/(N148/1000)/10^12</f>
         <v>3.541835294117647</v>
       </c>
       <c r="R148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="2:18">
+    <row r="149" spans="3:18">
       <c r="C149">
         <v>14</v>
       </c>
@@ -5941,22 +5977,22 @@
         <v>0.02</v>
       </c>
       <c r="O149" s="2">
-        <f t="shared" si="7"/>
+        <f>(D149-I149+1+2*K149)/M149</f>
         <v>14</v>
       </c>
       <c r="P149" s="2">
-        <f t="shared" si="8"/>
+        <f>(C149-H149+1+2*J149)/L149</f>
         <v>14</v>
       </c>
       <c r="Q149" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O149*P149*E149*F149*G149*I149*H149)/(N149/1000)/10^12</f>
         <v>3.8535167999999995</v>
       </c>
       <c r="R149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="2:18">
+    <row r="150" spans="3:18">
       <c r="C150">
         <v>7</v>
       </c>
@@ -5994,22 +6030,22 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O150" s="2">
-        <f t="shared" si="7"/>
+        <f>(D150-I150+1+2*K150)/M150</f>
         <v>7</v>
       </c>
       <c r="P150" s="2">
-        <f t="shared" si="8"/>
+        <f>(C150-H150+1+2*J150)/L150</f>
         <v>7</v>
       </c>
       <c r="Q150" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O150*P150*E150*F150*G150*I150*H150)/(N150/1000)/10^12</f>
         <v>1.6056319999999999</v>
       </c>
       <c r="R150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="2:18">
+    <row r="151" spans="3:18">
       <c r="C151">
         <v>7</v>
       </c>
@@ -6047,22 +6083,22 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="O151" s="2">
-        <f t="shared" si="7"/>
+        <f>(D151-I151+1+2*K151)/M151</f>
         <v>7</v>
       </c>
       <c r="P151" s="2">
-        <f t="shared" si="8"/>
+        <f>(C151-H151+1+2*J151)/L151</f>
         <v>7</v>
       </c>
       <c r="Q151" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O151*P151*E151*F151*G151*I151*H151)/(N151/1000)/10^12</f>
         <v>1.2454186157517901</v>
       </c>
       <c r="R151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="2:18">
+    <row r="152" spans="3:18">
       <c r="C152">
         <v>56</v>
       </c>
@@ -6100,22 +6136,22 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O152" s="2">
-        <f t="shared" si="7"/>
+        <f>(D152-I152+1+2*K152)/M152</f>
         <v>56</v>
       </c>
       <c r="P152" s="2">
-        <f t="shared" si="8"/>
+        <f>(C152-H152+1+2*J152)/L152</f>
         <v>56</v>
       </c>
       <c r="Q152" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O152*P152*E152*F152*G152*I152*H152)/(N152/1000)/10^12</f>
         <v>10.509591272727274</v>
       </c>
       <c r="R152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="2:18">
+    <row r="153" spans="3:18">
       <c r="C153">
         <v>56</v>
       </c>
@@ -6153,22 +6189,22 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O153" s="2">
-        <f t="shared" si="7"/>
+        <f>(D153-I153+1+2*K153)/M153</f>
         <v>28</v>
       </c>
       <c r="P153" s="2">
-        <f t="shared" si="8"/>
+        <f>(C153-H153+1+2*J153)/L153</f>
         <v>28</v>
       </c>
       <c r="Q153" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O153*P153*E153*F153*G153*I153*H153)/(N153/1000)/10^12</f>
         <v>2.3354647272727274</v>
       </c>
       <c r="R153">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:18">
+    <row r="154" spans="3:18">
       <c r="C154">
         <v>28</v>
       </c>
@@ -6206,22 +6242,22 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O154" s="2">
-        <f t="shared" si="7"/>
+        <f>(D154-I154+1+2*K154)/M154</f>
         <v>28</v>
       </c>
       <c r="P154" s="2">
-        <f t="shared" si="8"/>
+        <f>(C154-H154+1+2*J154)/L154</f>
         <v>28</v>
       </c>
       <c r="Q154" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O154*P154*E154*F154*G154*I154*H154)/(N154/1000)/10^12</f>
         <v>7.0063941818181821</v>
       </c>
       <c r="R154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:18">
+    <row r="155" spans="3:18">
       <c r="C155" s="1">
         <v>28</v>
       </c>
@@ -6259,22 +6295,22 @@
         <v>1.2E-2</v>
       </c>
       <c r="O155" s="2">
-        <f t="shared" si="7"/>
+        <f>(D155-I155+1+2*K155)/M155</f>
         <v>14</v>
       </c>
       <c r="P155" s="2">
-        <f t="shared" si="8"/>
+        <f>(C155-H155+1+2*J155)/L155</f>
         <v>14</v>
       </c>
       <c r="Q155" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O155*P155*E155*F155*G155*I155*H155)/(N155/1000)/10^12</f>
         <v>2.1408426666666664</v>
       </c>
       <c r="R155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:18">
+    <row r="156" spans="3:18">
       <c r="C156">
         <v>14</v>
       </c>
@@ -6312,23 +6348,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O156" s="2">
-        <f t="shared" si="7"/>
+        <f>(D156-I156+1+2*K156)/M156</f>
         <v>14</v>
       </c>
       <c r="P156" s="2">
-        <f t="shared" si="8"/>
+        <f>(C156-H156+1+2*J156)/L156</f>
         <v>14</v>
       </c>
       <c r="Q156" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O156*P156*E156*F156*G156*I156*H156)/(N156/1000)/10^12</f>
         <v>1.7126741333333335</v>
       </c>
       <c r="R156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="2:18">
-      <c r="B157" s="1"/>
+    <row r="157" spans="3:18">
       <c r="C157">
         <v>14</v>
       </c>
@@ -6366,22 +6401,22 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O157" s="2">
-        <f t="shared" si="7"/>
+        <f>(D157-I157+1+2*K157)/M157</f>
         <v>14</v>
       </c>
       <c r="P157" s="2">
-        <f t="shared" si="8"/>
+        <f>(C157-H157+1+2*J157)/L157</f>
         <v>14</v>
       </c>
       <c r="Q157" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O157*P157*E157*F157*G157*I157*H157)/(N157/1000)/10^12</f>
         <v>4.128768</v>
       </c>
       <c r="R157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="2:18">
+    <row r="158" spans="3:18">
       <c r="C158" s="1">
         <v>14</v>
       </c>
@@ -6419,22 +6454,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O158" s="2">
-        <f t="shared" si="7"/>
+        <f>(D158-I158+1+2*K158)/M158</f>
         <v>7</v>
       </c>
       <c r="P158" s="2">
-        <f t="shared" si="8"/>
+        <f>(C158-H158+1+2*J158)/L158</f>
         <v>7</v>
       </c>
       <c r="Q158" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O158*P158*E158*F158*G158*I158*H158)/(N158/1000)/10^12</f>
         <v>1.7126741333333335</v>
       </c>
       <c r="R158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="2:18">
+    <row r="159" spans="3:18">
       <c r="C159">
         <v>7</v>
       </c>
@@ -6472,23 +6507,22 @@
         <v>0.02</v>
       </c>
       <c r="O159" s="2">
-        <f t="shared" si="7"/>
+        <f>(D159-I159+1+2*K159)/M159</f>
         <v>7</v>
       </c>
       <c r="P159" s="2">
-        <f t="shared" si="8"/>
+        <f>(C159-H159+1+2*J159)/L159</f>
         <v>7</v>
       </c>
       <c r="Q159" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O159*P159*E159*F159*G159*I159*H159)/(N159/1000)/10^12</f>
         <v>1.2845055999999999</v>
       </c>
       <c r="R159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="2:18">
-      <c r="B160" s="1"/>
+    <row r="160" spans="3:18">
       <c r="C160">
         <v>7</v>
       </c>
@@ -6526,23 +6560,22 @@
         <v>0.05</v>
       </c>
       <c r="O160" s="2">
-        <f t="shared" si="7"/>
+        <f>(D160-I160+1+2*K160)/M160</f>
         <v>6.5</v>
       </c>
       <c r="P160" s="2">
-        <f t="shared" si="8"/>
+        <f>(C160-H160+1+2*J160)/L160</f>
         <v>6.5</v>
       </c>
       <c r="Q160" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O160*P160*E160*F160*G160*I160*H160)/(N160/1000)/10^12</f>
         <v>1.7720934399999999</v>
       </c>
       <c r="R160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="2:18">
-      <c r="B161" s="1"/>
+    <row r="161" spans="3:18">
       <c r="C161">
         <v>56</v>
       </c>
@@ -6580,23 +6613,22 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O161" s="2">
-        <f t="shared" si="7"/>
+        <f>(D161-I161+1+2*K161)/M161</f>
         <v>56</v>
       </c>
       <c r="P161" s="2">
-        <f t="shared" si="8"/>
+        <f>(C161-H161+1+2*J161)/L161</f>
         <v>56</v>
       </c>
       <c r="Q161" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O161*P161*E161*F161*G161*I161*H161)/(N161/1000)/10^12</f>
         <v>14.450688</v>
       </c>
       <c r="R161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:18">
-      <c r="B162" s="1"/>
+    <row r="162" spans="3:18">
       <c r="C162">
         <v>56</v>
       </c>
@@ -6634,22 +6666,22 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O162" s="2">
-        <f t="shared" si="7"/>
+        <f>(D162-I162+1+2*K162)/M162</f>
         <v>28</v>
       </c>
       <c r="P162" s="2">
-        <f t="shared" si="8"/>
+        <f>(C162-H162+1+2*J162)/L162</f>
         <v>28</v>
       </c>
       <c r="Q162" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O162*P162*E162*F162*G162*I162*H162)/(N162/1000)/10^12</f>
         <v>2.4466773333333331</v>
       </c>
       <c r="R162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:18">
+    <row r="163" spans="3:18">
       <c r="C163">
         <v>28</v>
       </c>
@@ -6687,22 +6719,22 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O163" s="2">
-        <f t="shared" si="7"/>
+        <f>(D163-I163+1+2*K163)/M163</f>
         <v>28</v>
       </c>
       <c r="P163" s="2">
-        <f t="shared" si="8"/>
+        <f>(C163-H163+1+2*J163)/L163</f>
         <v>28</v>
       </c>
       <c r="Q163" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O163*P163*E163*F163*G163*I163*H163)/(N163/1000)/10^12</f>
         <v>14.012788363636364</v>
       </c>
       <c r="R163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:18">
+    <row r="164" spans="3:18">
       <c r="C164" s="1">
         <v>28</v>
       </c>
@@ -6740,22 +6772,22 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O164" s="2">
-        <f t="shared" si="7"/>
+        <f>(D164-I164+1+2*K164)/M164</f>
         <v>14</v>
       </c>
       <c r="P164" s="2">
-        <f t="shared" si="8"/>
+        <f>(C164-H164+1+2*J164)/L164</f>
         <v>14</v>
       </c>
       <c r="Q164" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O164*P164*E164*F164*G164*I164*H164)/(N164/1000)/10^12</f>
         <v>3.0223661176470591</v>
       </c>
       <c r="R164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:18">
+    <row r="165" spans="3:18">
       <c r="C165">
         <v>14</v>
       </c>
@@ -6793,22 +6825,22 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O165" s="2">
-        <f t="shared" si="7"/>
+        <f>(D165-I165+1+2*K165)/M165</f>
         <v>14</v>
       </c>
       <c r="P165" s="2">
-        <f t="shared" si="8"/>
+        <f>(C165-H165+1+2*J165)/L165</f>
         <v>14</v>
       </c>
       <c r="Q165" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O165*P165*E165*F165*G165*I165*H165)/(N165/1000)/10^12</f>
         <v>3.0223661176470591</v>
       </c>
       <c r="R165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:18">
+    <row r="166" spans="3:18">
       <c r="C166">
         <v>14</v>
       </c>
@@ -6846,22 +6878,22 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O166" s="2">
-        <f t="shared" si="7"/>
+        <f>(D166-I166+1+2*K166)/M166</f>
         <v>14</v>
       </c>
       <c r="P166" s="2">
-        <f t="shared" si="8"/>
+        <f>(C166-H166+1+2*J166)/L166</f>
         <v>14</v>
       </c>
       <c r="Q166" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O166*P166*E166*F166*G166*I166*H166)/(N166/1000)/10^12</f>
         <v>8.257536</v>
       </c>
       <c r="R166">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="2:18">
+    <row r="167" spans="3:18">
       <c r="C167" s="1">
         <v>14</v>
       </c>
@@ -6899,23 +6931,22 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O167" s="2">
-        <f t="shared" si="7"/>
+        <f>(D167-I167+1+2*K167)/M167</f>
         <v>7</v>
       </c>
       <c r="P167" s="2">
-        <f t="shared" si="8"/>
+        <f>(C167-H167+1+2*J167)/L167</f>
         <v>7</v>
       </c>
       <c r="Q167" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O167*P167*E167*F167*G167*I167*H167)/(N167/1000)/10^12</f>
         <v>3.425348266666667</v>
       </c>
       <c r="R167">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="2:18">
-      <c r="B168" s="1"/>
+    <row r="168" spans="3:18">
       <c r="C168">
         <v>7</v>
       </c>
@@ -6953,22 +6984,22 @@
         <v>0.02</v>
       </c>
       <c r="O168" s="2">
-        <f t="shared" si="7"/>
+        <f>(D168-I168+1+2*K168)/M168</f>
         <v>7</v>
       </c>
       <c r="P168" s="2">
-        <f t="shared" si="8"/>
+        <f>(C168-H168+1+2*J168)/L168</f>
         <v>7</v>
       </c>
       <c r="Q168" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O168*P168*E168*F168*G168*I168*H168)/(N168/1000)/10^12</f>
         <v>2.5690111999999998</v>
       </c>
       <c r="R168">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="2:18">
+    <row r="169" spans="3:18">
       <c r="C169">
         <v>7</v>
       </c>
@@ -7006,23 +7037,22 @@
         <v>0.05</v>
       </c>
       <c r="O169" s="2">
-        <f t="shared" si="7"/>
+        <f>(D169-I169+1+2*K169)/M169</f>
         <v>6.5</v>
       </c>
       <c r="P169" s="2">
-        <f t="shared" si="8"/>
+        <f>(C169-H169+1+2*J169)/L169</f>
         <v>6.5</v>
       </c>
       <c r="Q169" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O169*P169*E169*F169*G169*I169*H169)/(N169/1000)/10^12</f>
         <v>3.5441868799999998</v>
       </c>
       <c r="R169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="2:18">
-      <c r="B170" s="1"/>
+    <row r="170" spans="3:18">
       <c r="C170">
         <v>700</v>
       </c>
@@ -7060,23 +7090,22 @@
         <v>0.153</v>
       </c>
       <c r="O170" s="2">
-        <f t="shared" si="7"/>
+        <f>(D170-I170+1+2*K170)/M170</f>
         <v>79.5</v>
       </c>
       <c r="P170" s="2">
-        <f t="shared" si="8"/>
+        <f>(C170-H170+1+2*J170)/L170</f>
         <v>349</v>
       </c>
       <c r="Q170" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O170*P170*E170*F170*G170*I170*H170)/(N170/1000)/10^12</f>
         <v>0.58029803921568623</v>
       </c>
       <c r="R170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="2:18">
-      <c r="B171" s="1"/>
+    <row r="171" spans="3:18">
       <c r="C171">
         <v>350</v>
       </c>
@@ -7114,23 +7143,22 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="O171" s="2">
-        <f t="shared" si="7"/>
+        <f>(D171-I171+1+2*K171)/M171</f>
         <v>80</v>
       </c>
       <c r="P171" s="2">
-        <f t="shared" si="8"/>
+        <f>(C171-H171+1+2*J171)/L171</f>
         <v>350</v>
       </c>
       <c r="Q171" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O171*P171*E171*F171*G171*I171*H171)/(N171/1000)/10^12</f>
         <v>17.796413793103451</v>
       </c>
       <c r="R171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="2:18">
-      <c r="B172" s="1"/>
+    <row r="172" spans="3:18">
       <c r="C172">
         <v>350</v>
       </c>
@@ -7168,23 +7196,22 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="O172" s="2">
-        <f t="shared" si="7"/>
+        <f>(D172-I172+1+2*K172)/M172</f>
         <v>39</v>
       </c>
       <c r="P172" s="2">
-        <f t="shared" si="8"/>
+        <f>(C172-H172+1+2*J172)/L172</f>
         <v>174</v>
       </c>
       <c r="Q172" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O172*P172*E172*F172*G172*I172*H172)/(N172/1000)/10^12</f>
         <v>38.075967123287668</v>
       </c>
       <c r="R172">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="2:18">
-      <c r="B173" s="1"/>
+    <row r="173" spans="3:18">
       <c r="C173">
         <v>175</v>
       </c>
@@ -7222,23 +7249,22 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O173" s="2">
-        <f t="shared" si="7"/>
+        <f>(D173-I173+1+2*K173)/M173</f>
         <v>40</v>
       </c>
       <c r="P173" s="2">
-        <f t="shared" si="8"/>
+        <f>(C173-H173+1+2*J173)/L173</f>
         <v>175</v>
       </c>
       <c r="Q173" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O173*P173*E173*F173*G173*I173*H173)/(N173/1000)/10^12</f>
         <v>38.229333333333336</v>
       </c>
       <c r="R173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="2:18">
-      <c r="B174" s="1"/>
+    <row r="174" spans="3:18">
       <c r="C174">
         <v>175</v>
       </c>
@@ -7276,23 +7302,22 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O174" s="2">
-        <f t="shared" si="7"/>
+        <f>(D174-I174+1+2*K174)/M174</f>
         <v>19</v>
       </c>
       <c r="P174" s="2">
-        <f t="shared" si="8"/>
+        <f>(C174-H174+1+2*J174)/L174</f>
         <v>86.5</v>
       </c>
       <c r="Q174" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O174*P174*E174*F174*G174*I174*H174)/(N174/1000)/10^12</f>
         <v>35.902805333333333</v>
       </c>
       <c r="R174">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="2:18">
-      <c r="B175" s="1"/>
+    <row r="175" spans="3:18">
       <c r="C175">
         <v>84</v>
       </c>
@@ -7330,23 +7355,22 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O175" s="2">
-        <f t="shared" si="7"/>
+        <f>(D175-I175+1+2*K175)/M175</f>
         <v>20</v>
       </c>
       <c r="P175" s="2">
-        <f t="shared" si="8"/>
+        <f>(C175-H175+1+2*J175)/L175</f>
         <v>84</v>
       </c>
       <c r="Q175" s="3">
-        <f t="shared" si="9"/>
+        <f>(2*O175*P175*E175*F175*G175*I175*H175)/(N175/1000)/10^12</f>
         <v>35.38944</v>
       </c>
       <c r="R175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="2:18">
-      <c r="B176" s="1"/>
+    <row r="176" spans="3:18">
       <c r="C176">
         <v>84</v>
       </c>
@@ -7384,15 +7408,15 @@
         <v>0.161</v>
       </c>
       <c r="O176" s="2">
-        <f t="shared" ref="O176:O217" si="10">(D176-H176+1+2*J176)/L176</f>
+        <f>(D176-I176+1+2*K176)/M176</f>
         <v>9</v>
       </c>
       <c r="P176" s="2">
-        <f t="shared" ref="P176:P217" si="11">(C176-I176+1+2*K176)/M176</f>
+        <f>(C176-H176+1+2*J176)/L176</f>
         <v>41</v>
       </c>
       <c r="Q176" s="3">
-        <f t="shared" ref="Q176:Q217" si="12">(2*O176*P176*E176*F176*G176*H176*I176)/(N176/1000)/10^12</f>
+        <f>(2*O176*P176*E176*F176*G176*I176*H176)/(N176/1000)/10^12</f>
         <v>15.020362732919255</v>
       </c>
       <c r="R176">
@@ -7400,7 +7424,6 @@
       </c>
     </row>
     <row r="177" spans="1:18">
-      <c r="B177" s="1"/>
       <c r="C177">
         <v>42</v>
       </c>
@@ -7438,15 +7461,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O177" s="2">
-        <f t="shared" si="10"/>
+        <f>(D177-I177+1+2*K177)/M177</f>
         <v>10</v>
       </c>
       <c r="P177" s="2">
-        <f t="shared" si="11"/>
+        <f>(C177-H177+1+2*J177)/L177</f>
         <v>42</v>
       </c>
       <c r="Q177" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O177*P177*E177*F177*G177*I177*H177)/(N177/1000)/10^12</f>
         <v>19.621867722772276</v>
       </c>
       <c r="R177">
@@ -7454,7 +7477,6 @@
       </c>
     </row>
     <row r="178" spans="1:18">
-      <c r="B178" s="1"/>
       <c r="C178">
         <v>700</v>
       </c>
@@ -7492,15 +7514,15 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="O178" s="2">
-        <f t="shared" si="10"/>
+        <f>(D178-I178+1+2*K178)/M178</f>
         <v>79.5</v>
       </c>
       <c r="P178" s="2">
-        <f t="shared" si="11"/>
+        <f>(C178-H178+1+2*J178)/L178</f>
         <v>349</v>
       </c>
       <c r="Q178" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O178*P178*E178*F178*G178*I178*H178)/(N178/1000)/10^12</f>
         <v>0.61021030927835063</v>
       </c>
       <c r="R178">
@@ -7508,7 +7530,6 @@
       </c>
     </row>
     <row r="179" spans="1:18">
-      <c r="B179" s="1"/>
       <c r="C179">
         <v>350</v>
       </c>
@@ -7546,15 +7567,15 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="O179" s="2">
-        <f t="shared" si="10"/>
+        <f>(D179-I179+1+2*K179)/M179</f>
         <v>80</v>
       </c>
       <c r="P179" s="2">
-        <f t="shared" si="11"/>
+        <f>(C179-H179+1+2*J179)/L179</f>
         <v>350</v>
       </c>
       <c r="Q179" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O179*P179*E179*F179*G179*I179*H179)/(N179/1000)/10^12</f>
         <v>19.75487081339713</v>
       </c>
       <c r="R179">
@@ -7562,7 +7583,6 @@
       </c>
     </row>
     <row r="180" spans="1:18">
-      <c r="B180" s="1"/>
       <c r="C180">
         <v>350</v>
       </c>
@@ -7600,15 +7620,15 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O180" s="2">
-        <f t="shared" si="10"/>
+        <f>(D180-I180+1+2*K180)/M180</f>
         <v>39</v>
       </c>
       <c r="P180" s="2">
-        <f t="shared" si="11"/>
+        <f>(C180-H180+1+2*J180)/L180</f>
         <v>174</v>
       </c>
       <c r="Q180" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O180*P180*E180*F180*G180*I180*H180)/(N180/1000)/10^12</f>
         <v>38.338560000000001</v>
       </c>
       <c r="R180">
@@ -7616,7 +7636,6 @@
       </c>
     </row>
     <row r="181" spans="1:18">
-      <c r="B181" s="1"/>
       <c r="C181">
         <v>175</v>
       </c>
@@ -7654,15 +7673,15 @@
         <v>0.106</v>
       </c>
       <c r="O181" s="2">
-        <f t="shared" si="10"/>
+        <f>(D181-I181+1+2*K181)/M181</f>
         <v>40</v>
       </c>
       <c r="P181" s="2">
-        <f t="shared" si="11"/>
+        <f>(C181-H181+1+2*J181)/L181</f>
         <v>175</v>
       </c>
       <c r="Q181" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O181*P181*E181*F181*G181*I181*H181)/(N181/1000)/10^12</f>
         <v>38.950641509433964</v>
       </c>
       <c r="R181">
@@ -7670,7 +7689,6 @@
       </c>
     </row>
     <row r="182" spans="1:18">
-      <c r="B182" s="1"/>
       <c r="C182">
         <v>175</v>
       </c>
@@ -7708,15 +7726,15 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="O182" s="2">
-        <f t="shared" si="10"/>
+        <f>(D182-I182+1+2*K182)/M182</f>
         <v>19</v>
       </c>
       <c r="P182" s="2">
-        <f t="shared" si="11"/>
+        <f>(C182-H182+1+2*J182)/L182</f>
         <v>86.5</v>
       </c>
       <c r="Q182" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O182*P182*E182*F182*G182*I182*H182)/(N182/1000)/10^12</f>
         <v>39.892005925925922</v>
       </c>
       <c r="R182">
@@ -7724,7 +7742,6 @@
       </c>
     </row>
     <row r="183" spans="1:18">
-      <c r="B183" s="1"/>
       <c r="C183">
         <v>84</v>
       </c>
@@ -7762,15 +7779,15 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O183" s="2">
-        <f t="shared" si="10"/>
+        <f>(D183-I183+1+2*K183)/M183</f>
         <v>20</v>
       </c>
       <c r="P183" s="2">
-        <f t="shared" si="11"/>
+        <f>(C183-H183+1+2*J183)/L183</f>
         <v>84</v>
       </c>
       <c r="Q183" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O183*P183*E183*F183*G183*I183*H183)/(N183/1000)/10^12</f>
         <v>41.287680000000002</v>
       </c>
       <c r="R183">
@@ -7778,7 +7795,6 @@
       </c>
     </row>
     <row r="184" spans="1:18">
-      <c r="B184" s="1"/>
       <c r="C184">
         <v>84</v>
       </c>
@@ -7816,15 +7832,15 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="O184" s="2">
-        <f t="shared" si="10"/>
+        <f>(D184-I184+1+2*K184)/M184</f>
         <v>9</v>
       </c>
       <c r="P184" s="2">
-        <f t="shared" si="11"/>
+        <f>(C184-H184+1+2*J184)/L184</f>
         <v>41</v>
       </c>
       <c r="Q184" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O184*P184*E184*F184*G184*I184*H184)/(N184/1000)/10^12</f>
         <v>29.855288888888886</v>
       </c>
       <c r="R184">
@@ -7832,7 +7848,6 @@
       </c>
     </row>
     <row r="185" spans="1:18">
-      <c r="B185" s="1"/>
       <c r="C185">
         <v>42</v>
       </c>
@@ -7870,15 +7885,15 @@
         <v>0.184</v>
       </c>
       <c r="O185" s="2">
-        <f t="shared" si="10"/>
+        <f>(D185-I185+1+2*K185)/M185</f>
         <v>10</v>
       </c>
       <c r="P185" s="2">
-        <f t="shared" si="11"/>
+        <f>(C185-H185+1+2*J185)/L185</f>
         <v>42</v>
       </c>
       <c r="Q185" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O185*P185*E185*F185*G185*I185*H185)/(N185/1000)/10^12</f>
         <v>21.541398260869567</v>
       </c>
       <c r="R185">
@@ -7887,7 +7902,6 @@
     </row>
     <row r="186" spans="1:18">
       <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
       <c r="C186">
         <v>112</v>
       </c>
@@ -7925,15 +7939,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O186" s="2">
-        <f t="shared" si="10"/>
+        <f>(D186-I186+1+2*K186)/M186</f>
         <v>112</v>
       </c>
       <c r="P186" s="2">
-        <f t="shared" si="11"/>
+        <f>(C186-H186+1+2*J186)/L186</f>
         <v>112</v>
       </c>
       <c r="Q186" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O186*P186*E186*F186*G186*I186*H186)/(N186/1000)/10^12</f>
         <v>5.4084446315789476</v>
       </c>
       <c r="R186">
@@ -7942,7 +7956,6 @@
     </row>
     <row r="187" spans="1:18">
       <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
       <c r="C187">
         <v>56</v>
       </c>
@@ -7980,15 +7993,15 @@
         <v>1.2E-2</v>
       </c>
       <c r="O187" s="2">
-        <f t="shared" si="10"/>
+        <f>(D187-I187+1+2*K187)/M187</f>
         <v>56</v>
       </c>
       <c r="P187" s="2">
-        <f t="shared" si="11"/>
+        <f>(C187-H187+1+2*J187)/L187</f>
         <v>56</v>
       </c>
       <c r="Q187" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O187*P187*E187*F187*G187*I187*H187)/(N187/1000)/10^12</f>
         <v>8.5633706666666658</v>
       </c>
       <c r="R187">
@@ -7997,7 +8010,6 @@
     </row>
     <row r="188" spans="1:18">
       <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
       <c r="C188">
         <v>56</v>
       </c>
@@ -8035,15 +8047,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O188" s="2">
-        <f t="shared" si="10"/>
+        <f>(D188-I188+1+2*K188)/M188</f>
         <v>56</v>
       </c>
       <c r="P188" s="2">
-        <f t="shared" si="11"/>
+        <f>(C188-H188+1+2*J188)/L188</f>
         <v>56</v>
       </c>
       <c r="Q188" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O188*P188*E188*F188*G188*I188*H188)/(N188/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="R188">
@@ -8052,7 +8064,6 @@
     </row>
     <row r="189" spans="1:18">
       <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
       <c r="C189">
         <v>56</v>
       </c>
@@ -8090,15 +8101,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O189" s="2">
-        <f t="shared" si="10"/>
+        <f>(D189-I189+1+2*K189)/M189</f>
         <v>28</v>
       </c>
       <c r="P189" s="2">
-        <f t="shared" si="11"/>
+        <f>(C189-H189+1+2*J189)/L189</f>
         <v>28</v>
       </c>
       <c r="Q189" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O189*P189*E189*F189*G189*I189*H189)/(N189/1000)/10^12</f>
         <v>3.425348266666667</v>
       </c>
       <c r="R189">
@@ -8107,7 +8118,6 @@
     </row>
     <row r="190" spans="1:18">
       <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
       <c r="C190" s="1">
         <v>28</v>
       </c>
@@ -8145,15 +8155,15 @@
         <v>0.02</v>
       </c>
       <c r="O190" s="2">
-        <f t="shared" si="10"/>
+        <f>(D190-I190+1+2*K190)/M190</f>
         <v>28</v>
       </c>
       <c r="P190" s="2">
-        <f t="shared" si="11"/>
+        <f>(C190-H190+1+2*J190)/L190</f>
         <v>28</v>
       </c>
       <c r="Q190" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O190*P190*E190*F190*G190*I190*H190)/(N190/1000)/10^12</f>
         <v>5.1380223999999997</v>
       </c>
       <c r="R190">
@@ -8162,7 +8172,6 @@
     </row>
     <row r="191" spans="1:18">
       <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
       <c r="C191" s="1">
         <v>28</v>
       </c>
@@ -8200,15 +8209,15 @@
         <v>0.02</v>
       </c>
       <c r="O191" s="2">
-        <f t="shared" si="10"/>
+        <f>(D191-I191+1+2*K191)/M191</f>
         <v>28</v>
       </c>
       <c r="P191" s="2">
-        <f t="shared" si="11"/>
+        <f>(C191-H191+1+2*J191)/L191</f>
         <v>28</v>
       </c>
       <c r="Q191" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O191*P191*E191*F191*G191*I191*H191)/(N191/1000)/10^12</f>
         <v>5.1380223999999997</v>
       </c>
       <c r="R191">
@@ -8217,7 +8226,6 @@
     </row>
     <row r="192" spans="1:18">
       <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
       <c r="C192" s="1">
         <v>28</v>
       </c>
@@ -8255,15 +8263,15 @@
         <v>0.02</v>
       </c>
       <c r="O192" s="2">
-        <f t="shared" si="10"/>
+        <f>(D192-I192+1+2*K192)/M192</f>
         <v>14</v>
       </c>
       <c r="P192" s="2">
-        <f t="shared" si="11"/>
+        <f>(C192-H192+1+2*J192)/L192</f>
         <v>14</v>
       </c>
       <c r="Q192" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O192*P192*E192*F192*G192*I192*H192)/(N192/1000)/10^12</f>
         <v>2.5690111999999998</v>
       </c>
       <c r="R192">
@@ -8272,7 +8280,6 @@
     </row>
     <row r="193" spans="1:18">
       <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
       <c r="C193" s="1">
         <v>14</v>
       </c>
@@ -8310,15 +8317,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O193" s="2">
-        <f t="shared" si="10"/>
+        <f>(D193-I193+1+2*K193)/M193</f>
         <v>14</v>
       </c>
       <c r="P193" s="2">
-        <f t="shared" si="11"/>
+        <f>(C193-H193+1+2*J193)/L193</f>
         <v>14</v>
       </c>
       <c r="Q193" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O193*P193*E193*F193*G193*I193*H193)/(N193/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="R193">
@@ -8327,7 +8334,6 @@
     </row>
     <row r="194" spans="1:18">
       <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
       <c r="C194" s="1">
         <v>28</v>
       </c>
@@ -8365,15 +8371,15 @@
         <v>0.02</v>
       </c>
       <c r="O194" s="2">
-        <f t="shared" si="10"/>
+        <f>(D194-I194+1+2*K194)/M194</f>
         <v>14</v>
       </c>
       <c r="P194" s="2">
-        <f t="shared" si="11"/>
+        <f>(C194-H194+1+2*J194)/L194</f>
         <v>14</v>
       </c>
       <c r="Q194" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O194*P194*E194*F194*G194*I194*H194)/(N194/1000)/10^12</f>
         <v>10.276044799999999</v>
       </c>
       <c r="R194">
@@ -8382,7 +8388,6 @@
     </row>
     <row r="195" spans="1:18">
       <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
       <c r="C195" s="1">
         <v>14</v>
       </c>
@@ -8420,15 +8425,15 @@
         <v>0.03</v>
       </c>
       <c r="O195" s="2">
-        <f t="shared" si="10"/>
+        <f>(D195-I195+1+2*K195)/M195</f>
         <v>14</v>
       </c>
       <c r="P195" s="2">
-        <f t="shared" si="11"/>
+        <f>(C195-H195+1+2*J195)/L195</f>
         <v>14</v>
       </c>
       <c r="Q195" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O195*P195*E195*F195*G195*I195*H195)/(N195/1000)/10^12</f>
         <v>3.425348266666667</v>
       </c>
       <c r="R195">
@@ -8437,7 +8442,6 @@
     </row>
     <row r="196" spans="1:18">
       <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
       <c r="C196" s="1">
         <v>14</v>
       </c>
@@ -8475,15 +8479,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O196" s="2">
-        <f t="shared" si="10"/>
+        <f>(D196-I196+1+2*K196)/M196</f>
         <v>14</v>
       </c>
       <c r="P196" s="2">
-        <f t="shared" si="11"/>
+        <f>(C196-H196+1+2*J196)/L196</f>
         <v>14</v>
       </c>
       <c r="Q196" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O196*P196*E196*F196*G196*I196*H196)/(N196/1000)/10^12</f>
         <v>6.0447322352941182</v>
       </c>
       <c r="R196">
@@ -8492,7 +8496,6 @@
     </row>
     <row r="197" spans="1:18">
       <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
       <c r="C197" s="1">
         <v>14</v>
       </c>
@@ -8530,15 +8533,15 @@
         <v>0.03</v>
       </c>
       <c r="O197" s="2">
-        <f t="shared" si="10"/>
+        <f>(D197-I197+1+2*K197)/M197</f>
         <v>7</v>
       </c>
       <c r="P197" s="2">
-        <f t="shared" si="11"/>
+        <f>(C197-H197+1+2*J197)/L197</f>
         <v>7</v>
       </c>
       <c r="Q197" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O197*P197*E197*F197*G197*I197*H197)/(N197/1000)/10^12</f>
         <v>1.7126741333333335</v>
       </c>
       <c r="R197">
@@ -8547,7 +8550,6 @@
     </row>
     <row r="198" spans="1:18">
       <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
       <c r="C198" s="1">
         <v>7</v>
       </c>
@@ -8585,15 +8587,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O198" s="2">
-        <f t="shared" si="10"/>
+        <f>(D198-I198+1+2*K198)/M198</f>
         <v>7</v>
       </c>
       <c r="P198" s="2">
-        <f t="shared" si="11"/>
+        <f>(C198-H198+1+2*J198)/L198</f>
         <v>7</v>
       </c>
       <c r="Q198" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O198*P198*E198*F198*G198*I198*H198)/(N198/1000)/10^12</f>
         <v>2.2892179009900993</v>
       </c>
       <c r="R198">
@@ -8602,7 +8604,6 @@
     </row>
     <row r="199" spans="1:18">
       <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
       <c r="C199" s="1">
         <v>7</v>
       </c>
@@ -8640,15 +8641,15 @@
         <v>0.02</v>
       </c>
       <c r="O199" s="2">
-        <f t="shared" si="10"/>
+        <f>(D199-I199+1+2*K199)/M199</f>
         <v>7</v>
       </c>
       <c r="P199" s="2">
-        <f t="shared" si="11"/>
+        <f>(C199-H199+1+2*J199)/L199</f>
         <v>7</v>
       </c>
       <c r="Q199" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O199*P199*E199*F199*G199*I199*H199)/(N199/1000)/10^12</f>
         <v>5.1380223999999997</v>
       </c>
       <c r="R199">
@@ -8657,7 +8658,6 @@
     </row>
     <row r="200" spans="1:18">
       <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
       <c r="C200" s="1">
         <v>14</v>
       </c>
@@ -8695,15 +8695,15 @@
         <v>0.03</v>
       </c>
       <c r="O200" s="2">
-        <f t="shared" si="10"/>
+        <f>(D200-I200+1+2*K200)/M200</f>
         <v>7</v>
       </c>
       <c r="P200" s="2">
-        <f t="shared" si="11"/>
+        <f>(C200-H200+1+2*J200)/L200</f>
         <v>7</v>
       </c>
       <c r="Q200" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O200*P200*E200*F200*G200*I200*H200)/(N200/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="R200">
@@ -8712,7 +8712,6 @@
     </row>
     <row r="201" spans="1:18">
       <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
       <c r="C201" s="1">
         <v>7</v>
       </c>
@@ -8750,15 +8749,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O201" s="2">
-        <f t="shared" si="10"/>
+        <f>(D201-I201+1+2*K201)/M201</f>
         <v>7</v>
       </c>
       <c r="P201" s="2">
-        <f t="shared" si="11"/>
+        <f>(C201-H201+1+2*J201)/L201</f>
         <v>7</v>
       </c>
       <c r="Q201" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O201*P201*E201*F201*G201*I201*H201)/(N201/1000)/10^12</f>
         <v>2.0971519999999999</v>
       </c>
       <c r="R201">
@@ -8767,7 +8766,6 @@
     </row>
     <row r="202" spans="1:18">
       <c r="A202" s="1"/>
-      <c r="B202" s="1"/>
       <c r="C202">
         <v>112</v>
       </c>
@@ -8805,15 +8803,15 @@
         <v>3.9E-2</v>
       </c>
       <c r="O202" s="2">
-        <f t="shared" si="10"/>
+        <f>(D202-I202+1+2*K202)/M202</f>
         <v>112</v>
       </c>
       <c r="P202" s="2">
-        <f t="shared" si="11"/>
+        <f>(C202-H202+1+2*J202)/L202</f>
         <v>112</v>
       </c>
       <c r="Q202" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O202*P202*E202*F202*G202*I202*H202)/(N202/1000)/10^12</f>
         <v>5.2697665641025644</v>
       </c>
       <c r="R202">
@@ -8822,7 +8820,6 @@
     </row>
     <row r="203" spans="1:18">
       <c r="A203" s="1"/>
-      <c r="B203" s="1"/>
       <c r="C203">
         <v>56</v>
       </c>
@@ -8860,15 +8857,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O203" s="2">
-        <f t="shared" si="10"/>
+        <f>(D203-I203+1+2*K203)/M203</f>
         <v>56</v>
       </c>
       <c r="P203" s="2">
-        <f t="shared" si="11"/>
+        <f>(C203-H203+1+2*J203)/L203</f>
         <v>56</v>
       </c>
       <c r="Q203" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O203*P203*E203*F203*G203*I203*H203)/(N203/1000)/10^12</f>
         <v>10.816889263157895</v>
       </c>
       <c r="R203">
@@ -8877,7 +8874,6 @@
     </row>
     <row r="204" spans="1:18">
       <c r="A204" s="1"/>
-      <c r="B204" s="1"/>
       <c r="C204">
         <v>56</v>
       </c>
@@ -8915,15 +8911,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O204" s="2">
-        <f t="shared" si="10"/>
+        <f>(D204-I204+1+2*K204)/M204</f>
         <v>56</v>
       </c>
       <c r="P204" s="2">
-        <f t="shared" si="11"/>
+        <f>(C204-H204+1+2*J204)/L204</f>
         <v>56</v>
       </c>
       <c r="Q204" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O204*P204*E204*F204*G204*I204*H204)/(N204/1000)/10^12</f>
         <v>10.816889263157895</v>
       </c>
       <c r="R204">
@@ -8932,7 +8928,6 @@
     </row>
     <row r="205" spans="1:18">
       <c r="A205" s="1"/>
-      <c r="B205" s="1"/>
       <c r="C205">
         <v>56</v>
       </c>
@@ -8970,15 +8965,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O205" s="2">
-        <f t="shared" si="10"/>
+        <f>(D205-I205+1+2*K205)/M205</f>
         <v>28</v>
       </c>
       <c r="P205" s="2">
-        <f t="shared" si="11"/>
+        <f>(C205-H205+1+2*J205)/L205</f>
         <v>28</v>
       </c>
       <c r="Q205" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O205*P205*E205*F205*G205*I205*H205)/(N205/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="R205">
@@ -8987,7 +8982,6 @@
     </row>
     <row r="206" spans="1:18">
       <c r="A206" s="1"/>
-      <c r="B206" s="1"/>
       <c r="C206" s="1">
         <v>28</v>
       </c>
@@ -9025,15 +9019,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O206" s="2">
-        <f t="shared" si="10"/>
+        <f>(D206-I206+1+2*K206)/M206</f>
         <v>28</v>
       </c>
       <c r="P206" s="2">
-        <f t="shared" si="11"/>
+        <f>(C206-H206+1+2*J206)/L206</f>
         <v>28</v>
       </c>
       <c r="Q206" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O206*P206*E206*F206*G206*I206*H206)/(N206/1000)/10^12</f>
         <v>13.701393066666668</v>
       </c>
       <c r="R206">
@@ -9042,7 +9036,6 @@
     </row>
     <row r="207" spans="1:18">
       <c r="A207" s="1"/>
-      <c r="B207" s="1"/>
       <c r="C207" s="1">
         <v>28</v>
       </c>
@@ -9080,15 +9073,15 @@
         <v>0.02</v>
       </c>
       <c r="O207" s="2">
-        <f t="shared" si="10"/>
+        <f>(D207-I207+1+2*K207)/M207</f>
         <v>28</v>
       </c>
       <c r="P207" s="2">
-        <f t="shared" si="11"/>
+        <f>(C207-H207+1+2*J207)/L207</f>
         <v>28</v>
       </c>
       <c r="Q207" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O207*P207*E207*F207*G207*I207*H207)/(N207/1000)/10^12</f>
         <v>10.276044799999999</v>
       </c>
       <c r="R207">
@@ -9097,7 +9090,6 @@
     </row>
     <row r="208" spans="1:18">
       <c r="A208" s="1"/>
-      <c r="B208" s="1"/>
       <c r="C208" s="1">
         <v>28</v>
       </c>
@@ -9135,15 +9127,15 @@
         <v>0.02</v>
       </c>
       <c r="O208" s="2">
-        <f t="shared" si="10"/>
+        <f>(D208-I208+1+2*K208)/M208</f>
         <v>14</v>
       </c>
       <c r="P208" s="2">
-        <f t="shared" si="11"/>
+        <f>(C208-H208+1+2*J208)/L208</f>
         <v>14</v>
       </c>
       <c r="Q208" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O208*P208*E208*F208*G208*I208*H208)/(N208/1000)/10^12</f>
         <v>5.1380223999999997</v>
       </c>
       <c r="R208">
@@ -9152,7 +9144,6 @@
     </row>
     <row r="209" spans="1:18">
       <c r="A209" s="1"/>
-      <c r="B209" s="1"/>
       <c r="C209" s="1">
         <v>14</v>
       </c>
@@ -9190,15 +9181,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O209" s="2">
-        <f t="shared" si="10"/>
+        <f>(D209-I209+1+2*K209)/M209</f>
         <v>14</v>
       </c>
       <c r="P209" s="2">
-        <f t="shared" si="11"/>
+        <f>(C209-H209+1+2*J209)/L209</f>
         <v>14</v>
       </c>
       <c r="Q209" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O209*P209*E209*F209*G209*I209*H209)/(N209/1000)/10^12</f>
         <v>10.816889263157895</v>
       </c>
       <c r="R209">
@@ -9207,7 +9198,6 @@
     </row>
     <row r="210" spans="1:18">
       <c r="A210" s="1"/>
-      <c r="B210" s="1"/>
       <c r="C210" s="1">
         <v>28</v>
       </c>
@@ -9245,15 +9235,15 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="O210" s="2">
-        <f t="shared" si="10"/>
+        <f>(D210-I210+1+2*K210)/M210</f>
         <v>14</v>
       </c>
       <c r="P210" s="2">
-        <f t="shared" si="11"/>
+        <f>(C210-H210+1+2*J210)/L210</f>
         <v>14</v>
       </c>
       <c r="Q210" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O210*P210*E210*F210*G210*I210*H210)/(N210/1000)/10^12</f>
         <v>14.173854896551724</v>
       </c>
       <c r="R210">
@@ -9262,7 +9252,6 @@
     </row>
     <row r="211" spans="1:18">
       <c r="A211" s="1"/>
-      <c r="B211" s="1"/>
       <c r="C211" s="1">
         <v>14</v>
       </c>
@@ -9300,15 +9289,15 @@
         <v>0.03</v>
       </c>
       <c r="O211" s="2">
-        <f t="shared" si="10"/>
+        <f>(D211-I211+1+2*K211)/M211</f>
         <v>14</v>
       </c>
       <c r="P211" s="2">
-        <f t="shared" si="11"/>
+        <f>(C211-H211+1+2*J211)/L211</f>
         <v>14</v>
       </c>
       <c r="Q211" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O211*P211*E211*F211*G211*I211*H211)/(N211/1000)/10^12</f>
         <v>6.8506965333333341</v>
       </c>
       <c r="R211">
@@ -9317,7 +9306,6 @@
     </row>
     <row r="212" spans="1:18">
       <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
       <c r="C212" s="1">
         <v>14</v>
       </c>
@@ -9355,15 +9343,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O212" s="2">
-        <f t="shared" si="10"/>
+        <f>(D212-I212+1+2*K212)/M212</f>
         <v>14</v>
       </c>
       <c r="P212" s="2">
-        <f t="shared" si="11"/>
+        <f>(C212-H212+1+2*J212)/L212</f>
         <v>14</v>
       </c>
       <c r="Q212" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O212*P212*E212*F212*G212*I212*H212)/(N212/1000)/10^12</f>
         <v>10.816889263157895</v>
       </c>
       <c r="R212">
@@ -9372,7 +9360,6 @@
     </row>
     <row r="213" spans="1:18">
       <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
       <c r="C213" s="1">
         <v>14</v>
       </c>
@@ -9410,15 +9397,15 @@
         <v>0.03</v>
       </c>
       <c r="O213" s="2">
-        <f t="shared" si="10"/>
+        <f>(D213-I213+1+2*K213)/M213</f>
         <v>7</v>
       </c>
       <c r="P213" s="2">
-        <f t="shared" si="11"/>
+        <f>(C213-H213+1+2*J213)/L213</f>
         <v>7</v>
       </c>
       <c r="Q213" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O213*P213*E213*F213*G213*I213*H213)/(N213/1000)/10^12</f>
         <v>3.425348266666667</v>
       </c>
       <c r="R213">
@@ -9427,7 +9414,6 @@
     </row>
     <row r="214" spans="1:18">
       <c r="A214" s="1"/>
-      <c r="B214" s="1"/>
       <c r="C214" s="1">
         <v>7</v>
       </c>
@@ -9465,15 +9451,15 @@
         <v>0.1</v>
       </c>
       <c r="O214" s="2">
-        <f t="shared" si="10"/>
+        <f>(D214-I214+1+2*K214)/M214</f>
         <v>7</v>
       </c>
       <c r="P214" s="2">
-        <f t="shared" si="11"/>
+        <f>(C214-H214+1+2*J214)/L214</f>
         <v>7</v>
       </c>
       <c r="Q214" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O214*P214*E214*F214*G214*I214*H214)/(N214/1000)/10^12</f>
         <v>4.6242201600000001</v>
       </c>
       <c r="R214">
@@ -9482,7 +9468,6 @@
     </row>
     <row r="215" spans="1:18">
       <c r="A215" s="1"/>
-      <c r="B215" s="1"/>
       <c r="C215" s="1">
         <v>7</v>
       </c>
@@ -9520,15 +9505,15 @@
         <v>0.02</v>
       </c>
       <c r="O215" s="2">
-        <f t="shared" si="10"/>
+        <f>(D215-I215+1+2*K215)/M215</f>
         <v>7</v>
       </c>
       <c r="P215" s="2">
-        <f t="shared" si="11"/>
+        <f>(C215-H215+1+2*J215)/L215</f>
         <v>7</v>
       </c>
       <c r="Q215" s="3">
-        <f>(2*O215*P215*E215*F215*G215*H215*I215)/(N215/1000)/10^12</f>
+        <f>(2*O215*P215*E215*F215*G215*I215*H215)/(N215/1000)/10^12</f>
         <v>10.276044799999999</v>
       </c>
       <c r="R215">
@@ -9537,7 +9522,6 @@
     </row>
     <row r="216" spans="1:18">
       <c r="A216" s="1"/>
-      <c r="B216" s="1"/>
       <c r="C216" s="1">
         <v>14</v>
       </c>
@@ -9575,15 +9559,15 @@
         <v>0.03</v>
       </c>
       <c r="O216" s="2">
-        <f t="shared" si="10"/>
+        <f>(D216-I216+1+2*K216)/M216</f>
         <v>7</v>
       </c>
       <c r="P216" s="2">
-        <f t="shared" si="11"/>
+        <f>(C216-H216+1+2*J216)/L216</f>
         <v>7</v>
       </c>
       <c r="Q216" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O216*P216*E216*F216*G216*I216*H216)/(N216/1000)/10^12</f>
         <v>13.701393066666668</v>
       </c>
       <c r="R216">
@@ -9592,7 +9576,6 @@
     </row>
     <row r="217" spans="1:18">
       <c r="A217" s="1"/>
-      <c r="B217" s="1"/>
       <c r="C217" s="1">
         <v>7</v>
       </c>
@@ -9630,15 +9613,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O217" s="2">
-        <f t="shared" si="10"/>
+        <f>(D217-I217+1+2*K217)/M217</f>
         <v>7</v>
       </c>
       <c r="P217" s="2">
-        <f t="shared" si="11"/>
+        <f>(C217-H217+1+2*J217)/L217</f>
         <v>7</v>
       </c>
       <c r="Q217" s="3">
-        <f t="shared" si="12"/>
+        <f>(2*O217*P217*E217*F217*G217*I217*H217)/(N217/1000)/10^12</f>
         <v>4.1943039999999998</v>
       </c>
       <c r="R217">
@@ -9716,7 +9699,7 @@
         <v>1.296</v>
       </c>
       <c r="H229" s="3">
-        <f t="shared" ref="H229:H242" si="13">(8*$E229*$D229*$C229*$C229+$E229*$D229*$C229)/(G229/1000)/10^12</f>
+        <f t="shared" ref="H229:H242" si="7">(8*$E229*$D229*$C229*$C229+$E229*$D229*$C229)/(G229/1000)/10^12</f>
         <v>8.09283950617284E-2</v>
       </c>
     </row>
@@ -9734,7 +9717,7 @@
         <v>1.2789999999999999</v>
       </c>
       <c r="H230" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.16400813135261924</v>
       </c>
     </row>
@@ -9752,7 +9735,7 @@
         <v>1.8720000000000001</v>
       </c>
       <c r="H231" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.11204102564102564</v>
       </c>
     </row>
@@ -9770,7 +9753,7 @@
         <v>1.9079999999999999</v>
       </c>
       <c r="H232" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.21985408805031448</v>
       </c>
     </row>
@@ -9788,7 +9771,7 @@
         <v>1.929</v>
       </c>
       <c r="H233" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.43492130637636084</v>
       </c>
     </row>
@@ -9806,7 +9789,7 @@
         <v>5.2720000000000002</v>
       </c>
       <c r="H234" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.15912594840667676</v>
       </c>
     </row>
@@ -9824,7 +9807,7 @@
         <v>5.3029999999999999</v>
       </c>
       <c r="H235" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.31639147652272304</v>
       </c>
     </row>
@@ -9842,7 +9825,7 @@
         <v>5.7009999999999996</v>
       </c>
       <c r="H236" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.5886069110682336</v>
       </c>
     </row>
@@ -9860,7 +9843,7 @@
         <v>6.1980000000000004</v>
       </c>
       <c r="H237" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.15227415295256533</v>
       </c>
     </row>
@@ -9878,7 +9861,7 @@
         <v>6.8259999999999996</v>
       </c>
       <c r="H238" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.27652950483445649</v>
       </c>
     </row>
@@ -9896,7 +9879,7 @@
         <v>6.9249999999999998</v>
       </c>
       <c r="H239" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.54515246209386281</v>
       </c>
     </row>
@@ -9914,7 +9897,7 @@
         <v>1.994</v>
       </c>
       <c r="H240" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3.945917753259779E-2</v>
       </c>
     </row>
@@ -9932,7 +9915,7 @@
         <v>2.222</v>
       </c>
       <c r="H241" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>7.0820522052205209E-2</v>
       </c>
     </row>
@@ -9950,7 +9933,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="H242" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>0.14403954233409613</v>
       </c>
     </row>
@@ -10012,7 +9995,7 @@
         <v>177.792</v>
       </c>
       <c r="H247" s="3">
-        <f t="shared" ref="H247:H299" si="14">(6*$E247*$D247*$C247*$C247+$E247*$D247*$C247)/(G247/1000)/10^12</f>
+        <f t="shared" ref="H247:H299" si="8">(6*$E247*$D247*$C247*$C247+$E247*$D247*$C247)/(G247/1000)/10^12</f>
         <v>0.20072030237580993</v>
       </c>
     </row>
@@ -10030,7 +10013,7 @@
         <v>90.546999999999997</v>
       </c>
       <c r="H248" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.19706044374744608</v>
       </c>
     </row>
@@ -10048,7 +10031,7 @@
         <v>46.677</v>
       </c>
       <c r="H249" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.19062546916040021</v>
       </c>
     </row>
@@ -10066,7 +10049,7 @@
         <v>346.99299999999999</v>
       </c>
       <c r="H250" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.41137964166424107</v>
       </c>
     </row>
@@ -10084,7 +10067,7 @@
         <v>176.761</v>
       </c>
       <c r="H251" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.40378210125536745</v>
       </c>
     </row>
@@ -10102,7 +10085,7 @@
         <v>90.013999999999996</v>
       </c>
       <c r="H252" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.39645459595174082</v>
       </c>
     </row>
@@ -10120,7 +10103,7 @@
         <v>47.075000000000003</v>
       </c>
       <c r="H253" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.37802761652681882</v>
       </c>
     </row>
@@ -10138,7 +10121,7 @@
         <v>380.19499999999999</v>
       </c>
       <c r="H254" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.75090864424834625</v>
       </c>
     </row>
@@ -10156,7 +10139,7 @@
         <v>192.702</v>
       </c>
       <c r="H255" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.74075959772083322</v>
       </c>
     </row>
@@ -10174,7 +10157,7 @@
         <v>98.581000000000003</v>
       </c>
       <c r="H256" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.72400288087968279</v>
       </c>
     </row>
@@ -10192,7 +10175,7 @@
         <v>51.000999999999998</v>
       </c>
       <c r="H257" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.69785494590302144</v>
       </c>
     </row>
@@ -10210,7 +10193,7 @@
         <v>191.024</v>
       </c>
       <c r="H258" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.19762861211156713</v>
       </c>
     </row>
@@ -10228,7 +10211,7 @@
         <v>98.846000000000004</v>
       </c>
       <c r="H259" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.19096275013657607</v>
       </c>
     </row>
@@ -10246,7 +10229,7 @@
         <v>51.591000000000001</v>
       </c>
       <c r="H260" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.18293795429435367</v>
       </c>
     </row>
@@ -10264,7 +10247,7 @@
         <v>26.954000000000001</v>
       </c>
       <c r="H261" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.17460829798916672</v>
       </c>
     </row>
@@ -10282,7 +10265,7 @@
         <v>191.88</v>
       </c>
       <c r="H262" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.39349393370856789</v>
       </c>
     </row>
@@ -10300,7 +10283,7 @@
         <v>98.045000000000002</v>
       </c>
       <c r="H263" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.38504572390228975</v>
       </c>
     </row>
@@ -10318,7 +10301,7 @@
         <v>50.987000000000002</v>
       </c>
       <c r="H264" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.37021013199442993</v>
       </c>
     </row>
@@ -10336,7 +10319,7 @@
         <v>27.015000000000001</v>
       </c>
       <c r="H265" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.34842806322413472</v>
       </c>
     </row>
@@ -10354,7 +10337,7 @@
         <v>195.82</v>
       </c>
       <c r="H266" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.77115326320089883</v>
       </c>
     </row>
@@ -10372,7 +10355,7 @@
         <v>100.44799999999999</v>
       </c>
       <c r="H267" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.75166868429436129</v>
       </c>
     </row>
@@ -10390,7 +10373,7 @@
         <v>51.768000000000001</v>
       </c>
       <c r="H268" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.72924988409828462</v>
       </c>
     </row>
@@ -10408,7 +10391,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="H269" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.69056778019881881</v>
       </c>
     </row>
@@ -10426,7 +10409,7 @@
         <v>113.599</v>
       </c>
       <c r="H270" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.18693798360901062</v>
       </c>
     </row>
@@ -10444,7 +10427,7 @@
         <v>59.203000000000003</v>
       </c>
       <c r="H271" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.17934874921878957</v>
       </c>
     </row>
@@ -10462,7 +10445,7 @@
         <v>31.731999999999999</v>
       </c>
       <c r="H272" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.16730719778141939</v>
       </c>
     </row>
@@ -10480,7 +10463,7 @@
         <v>17.36</v>
       </c>
       <c r="H273" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.152500999078341</v>
       </c>
     </row>
@@ -10498,7 +10481,7 @@
         <v>114.294</v>
       </c>
       <c r="H274" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.37160249881883561</v>
       </c>
     </row>
@@ -10516,7 +10499,7 @@
         <v>59.41</v>
       </c>
       <c r="H275" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.35744770240700219</v>
       </c>
     </row>
@@ -10534,7 +10517,7 @@
         <v>32.039000000000001</v>
       </c>
       <c r="H276" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.33140809638253382</v>
       </c>
     </row>
@@ -10552,7 +10535,7 @@
         <v>17.856999999999999</v>
       </c>
       <c r="H277" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.29651311463291713</v>
       </c>
     </row>
@@ -10570,7 +10553,7 @@
         <v>115.566</v>
       </c>
       <c r="H278" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.73502476506931103</v>
       </c>
     </row>
@@ -10588,7 +10571,7 @@
         <v>61.024000000000001</v>
       </c>
       <c r="H279" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.69598741478762449</v>
       </c>
     </row>
@@ -10606,7 +10589,7 @@
         <v>32.533999999999999</v>
       </c>
       <c r="H280" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.6527315423864265</v>
       </c>
     </row>
@@ -10624,7 +10607,7 @@
         <v>17.827999999999999</v>
       </c>
       <c r="H281" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.59399087816917207</v>
       </c>
     </row>
@@ -10642,7 +10625,7 @@
         <v>286.10399999999998</v>
       </c>
       <c r="H282" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.20617062326985994</v>
       </c>
     </row>
@@ -10660,7 +10643,7 @@
         <v>145.66</v>
       </c>
       <c r="H283" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.20247919813263768</v>
       </c>
     </row>
@@ -10678,7 +10661,7 @@
         <v>74.617999999999995</v>
       </c>
       <c r="H284" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.19762738213299744</v>
       </c>
     </row>
@@ -10696,7 +10679,7 @@
         <v>38.747999999999998</v>
       </c>
       <c r="H285" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.18978058015897595</v>
       </c>
     </row>
@@ -10714,7 +10697,7 @@
         <v>285.04599999999999</v>
       </c>
       <c r="H286" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.41387172596703692</v>
       </c>
     </row>
@@ -10732,7 +10715,7 @@
         <v>146.02699999999999</v>
       </c>
       <c r="H287" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.40394064111431449</v>
       </c>
     </row>
@@ -10750,7 +10733,7 @@
         <v>75.016999999999996</v>
       </c>
       <c r="H288" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.39315248543663434</v>
       </c>
     </row>
@@ -10768,7 +10751,7 @@
         <v>38.968000000000004</v>
       </c>
       <c r="H289" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.37741828782590836</v>
       </c>
     </row>
@@ -10786,7 +10769,7 @@
         <v>288.48500000000001</v>
       </c>
       <c r="H290" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.81787600741806332</v>
       </c>
     </row>
@@ -10804,7 +10787,7 @@
         <v>146.66999999999999</v>
       </c>
       <c r="H291" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.80433953773777866</v>
       </c>
     </row>
@@ -10822,7 +10805,7 @@
         <v>75.781000000000006</v>
       </c>
       <c r="H292" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.77837769361713349</v>
       </c>
     </row>
@@ -10840,7 +10823,7 @@
         <v>39.292000000000002</v>
       </c>
       <c r="H293" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.7486122284434491</v>
       </c>
     </row>
@@ -10858,7 +10841,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H294" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>2.968633962264151E-2</v>
       </c>
     </row>
@@ -10876,7 +10859,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H295" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>5.1586098360655738E-2</v>
       </c>
     </row>
@@ -10894,7 +10877,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H296" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.11654637037037038</v>
       </c>
     </row>
@@ -10912,7 +10895,7 @@
         <v>59.258000000000003</v>
       </c>
       <c r="H297" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.15928178473792565</v>
       </c>
     </row>
@@ -10930,7 +10913,7 @@
         <v>59.804000000000002</v>
       </c>
       <c r="H298" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.31565514012440637</v>
       </c>
     </row>
@@ -10948,7 +10931,7 @@
         <v>61.216999999999999</v>
       </c>
       <c r="H299" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>0.61673848767499218</v>
       </c>
     </row>

--- a/results/inference/server/DeepBench_NV_TitanXp.xlsx
+++ b/results/inference/server/DeepBench_NV_TitanXp.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3959,16 +3959,16 @@
         <v>0.61899999999999999</v>
       </c>
       <c r="O111" s="2">
-        <f>(D111-I111+1+2*K111)/M111</f>
-        <v>78.5</v>
+        <f>1+ROUNDDOWN((($C111-$H111+2*$J111)/$L111),0)</f>
+        <v>341</v>
       </c>
       <c r="P111" s="2">
-        <f>(C111-H111+1+2*J111)/L111</f>
-        <v>340.5</v>
+        <f>1+ROUNDDOWN((($D111-$I111+2*$K111)/$M111),0)</f>
+        <v>79</v>
       </c>
       <c r="Q111" s="3">
-        <f>(2*O111*P111*E111*F111*G111*I111*H111)/(N111/1000)/10^12</f>
-        <v>0.27636058158319871</v>
+        <f t="shared" ref="Q111:Q142" si="7">(2*O111*P111*E111*F111*G111*I111*H111)/(N111/1000)/10^12</f>
+        <v>0.27852924071082391</v>
       </c>
       <c r="R111">
         <v>1</v>
@@ -4012,16 +4012,16 @@
         <v>1.052</v>
       </c>
       <c r="O112" s="2">
-        <f>(D112-I112+1+2*K112)/M112</f>
-        <v>78.5</v>
+        <f t="shared" ref="O112:O175" si="8">1+ROUNDDOWN((($C112-$H112+2*$J112)/$L112),0)</f>
+        <v>341</v>
       </c>
       <c r="P112" s="2">
-        <f>(C112-H112+1+2*J112)/L112</f>
-        <v>340.5</v>
+        <f t="shared" ref="P112:P175" si="9">1+ROUNDDOWN((($D112-$I112+2*$K112)/$M112),0)</f>
+        <v>79</v>
       </c>
       <c r="Q112" s="3">
-        <f>(2*O112*P112*E112*F112*G112*I112*H112)/(N112/1000)/10^12</f>
-        <v>0.32522281368821293</v>
+        <f t="shared" si="7"/>
+        <v>0.32777490494296574</v>
       </c>
       <c r="R112">
         <v>1</v>
@@ -4065,16 +4065,16 @@
         <v>1.9990000000000001</v>
       </c>
       <c r="O113" s="2">
-        <f>(D113-I113+1+2*K113)/M113</f>
-        <v>78.5</v>
+        <f t="shared" si="8"/>
+        <v>341</v>
       </c>
       <c r="P113" s="2">
-        <f>(C113-H113+1+2*J113)/L113</f>
-        <v>340.5</v>
+        <f t="shared" si="9"/>
+        <v>79</v>
       </c>
       <c r="Q113" s="3">
-        <f>(2*O113*P113*E113*F113*G113*I113*H113)/(N113/1000)/10^12</f>
-        <v>0.34230555277638819</v>
+        <f t="shared" si="7"/>
+        <v>0.34499169584792394</v>
       </c>
       <c r="R113">
         <v>1</v>
@@ -4118,16 +4118,16 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="O114" s="2">
-        <f>(D114-I114+1+2*K114)/M114</f>
-        <v>37.5</v>
+        <f t="shared" si="8"/>
+        <v>166</v>
       </c>
       <c r="P114" s="2">
-        <f>(C114-H114+1+2*J114)/L114</f>
-        <v>166</v>
+        <f t="shared" si="9"/>
+        <v>38</v>
       </c>
       <c r="Q114" s="3">
-        <f>(2*O114*P114*E114*F114*G114*I114*H114)/(N114/1000)/10^12</f>
-        <v>8.6140540540540549</v>
+        <f t="shared" si="7"/>
+        <v>8.7289081081081079</v>
       </c>
       <c r="R114">
         <v>1</v>
@@ -4171,16 +4171,16 @@
         <v>0.14299999999999999</v>
       </c>
       <c r="O115" s="2">
-        <f>(D115-I115+1+2*K115)/M115</f>
-        <v>37.5</v>
+        <f t="shared" si="8"/>
+        <v>166</v>
       </c>
       <c r="P115" s="2">
-        <f>(C115-H115+1+2*J115)/L115</f>
-        <v>166</v>
+        <f t="shared" si="9"/>
+        <v>38</v>
       </c>
       <c r="Q115" s="3">
-        <f>(2*O115*P115*E115*F115*G115*I115*H115)/(N115/1000)/10^12</f>
-        <v>8.9152447552447551</v>
+        <f t="shared" si="7"/>
+        <v>9.0341146853146874</v>
       </c>
       <c r="R115">
         <v>1</v>
@@ -4224,16 +4224,16 @@
         <v>0.28599999999999998</v>
       </c>
       <c r="O116" s="2">
-        <f>(D116-I116+1+2*K116)/M116</f>
-        <v>37.5</v>
+        <f t="shared" si="8"/>
+        <v>166</v>
       </c>
       <c r="P116" s="2">
-        <f>(C116-H116+1+2*J116)/L116</f>
-        <v>166</v>
+        <f t="shared" si="9"/>
+        <v>38</v>
       </c>
       <c r="Q116" s="3">
-        <f>(2*O116*P116*E116*F116*G116*I116*H116)/(N116/1000)/10^12</f>
-        <v>8.9152447552447551</v>
+        <f t="shared" si="7"/>
+        <v>9.0341146853146874</v>
       </c>
       <c r="R116">
         <v>1</v>
@@ -4277,15 +4277,15 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="O117" s="2">
-        <f>(D117-I117+1+2*K117)/M117</f>
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="P117" s="2">
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
-      <c r="P117" s="2">
-        <f>(C117-H117+1+2*J117)/L117</f>
-        <v>480</v>
-      </c>
       <c r="Q117" s="3">
-        <f>(2*O117*P117*E117*F117*G117*I117*H117)/(N117/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>0.12519849056603774</v>
       </c>
       <c r="R117">
@@ -4330,15 +4330,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O118" s="2">
-        <f>(D118-I118+1+2*K118)/M118</f>
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="P118" s="2">
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="P118" s="2">
-        <f>(C118-H118+1+2*J118)/L118</f>
-        <v>240</v>
-      </c>
       <c r="Q118" s="3">
-        <f>(2*O118*P118*E118*F118*G118*I118*H118)/(N118/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>2.4129163636363637</v>
       </c>
       <c r="R118">
@@ -4383,15 +4383,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O119" s="2">
-        <f>(D119-I119+1+2*K119)/M119</f>
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="P119" s="2">
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="P119" s="2">
-        <f>(C119-H119+1+2*J119)/L119</f>
-        <v>120</v>
-      </c>
       <c r="Q119" s="3">
-        <f>(2*O119*P119*E119*F119*G119*I119*H119)/(N119/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>2.7939031578947366</v>
       </c>
       <c r="R119">
@@ -4436,15 +4436,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O120" s="2">
-        <f>(D120-I120+1+2*K120)/M120</f>
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="P120" s="2">
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="P120" s="2">
-        <f>(C120-H120+1+2*J120)/L120</f>
-        <v>60</v>
-      </c>
       <c r="Q120" s="3">
-        <f>(2*O120*P120*E120*F120*G120*I120*H120)/(N120/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>2.4129163636363637</v>
       </c>
       <c r="R120">
@@ -4489,15 +4489,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O121" s="2">
-        <f>(D121-I121+1+2*K121)/M121</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="P121" s="2">
-        <f>(C121-H121+1+2*J121)/L121</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Q121" s="3">
-        <f>(2*O121*P121*E121*F121*G121*I121*H121)/(N121/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>0.59280564705882344</v>
       </c>
       <c r="R121">
@@ -4542,15 +4542,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O122" s="2">
-        <f>(D122-I122+1+2*K122)/M122</f>
+        <f t="shared" si="8"/>
         <v>54</v>
       </c>
       <c r="P122" s="2">
-        <f>(C122-H122+1+2*J122)/L122</f>
+        <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="Q122" s="3">
-        <f>(2*O122*P122*E122*F122*G122*I122*H122)/(N122/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>9.7723112727272738</v>
       </c>
       <c r="R122">
@@ -4595,15 +4595,15 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O123" s="2">
-        <f>(D123-I123+1+2*K123)/M123</f>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="P123" s="2">
-        <f>(C123-H123+1+2*J123)/L123</f>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="Q123" s="3">
-        <f>(2*O123*P123*E123*F123*G123*I123*H123)/(N123/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>6.5148741818181817</v>
       </c>
       <c r="R123">
@@ -4648,15 +4648,15 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O124" s="2">
-        <f>(D124-I124+1+2*K124)/M124</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P124" s="2">
-        <f>(C124-H124+1+2*J124)/L124</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q124" s="3">
-        <f>(2*O124*P124*E124*F124*G124*I124*H124)/(N124/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>3.503197090909091</v>
       </c>
       <c r="R124">
@@ -4701,15 +4701,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O125" s="2">
-        <f>(D125-I125+1+2*K125)/M125</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P125" s="2">
-        <f>(C125-H125+1+2*J125)/L125</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q125" s="3">
-        <f>(2*O125*P125*E125*F125*G125*I125*H125)/(N125/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>2.064384</v>
       </c>
       <c r="R125">
@@ -4754,15 +4754,15 @@
         <v>0.122</v>
       </c>
       <c r="O126" s="2">
-        <f>(D126-I126+1+2*K126)/M126</f>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="P126" s="2">
-        <f>(C126-H126+1+2*J126)/L126</f>
+        <f t="shared" si="9"/>
         <v>224</v>
       </c>
       <c r="Q126" s="3">
-        <f>(2*O126*P126*E126*F126*G126*I126*H126)/(N126/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>1.4213791475409836</v>
       </c>
       <c r="R126">
@@ -4807,15 +4807,15 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="O127" s="2">
-        <f>(D127-I127+1+2*K127)/M127</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="P127" s="2">
-        <f>(C127-H127+1+2*J127)/L127</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="Q127" s="3">
-        <f>(2*O127*P127*E127*F127*G127*I127*H127)/(N127/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>31.350645152542373</v>
       </c>
       <c r="R127">
@@ -4861,15 +4861,15 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O128" s="2">
-        <f>(D128-I128+1+2*K128)/M128</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="P128" s="2">
-        <f>(C128-H128+1+2*J128)/L128</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="Q128" s="3">
-        <f>(2*O128*P128*E128*F128*G128*I128*H128)/(N128/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>34.25348266666667</v>
       </c>
       <c r="R128">
@@ -4915,15 +4915,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O129" s="2">
-        <f>(D129-I129+1+2*K129)/M129</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P129" s="2">
-        <f>(C129-H129+1+2*J129)/L129</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q129" s="3">
-        <f>(2*O129*P129*E129*F129*G129*I129*H129)/(N129/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>33.030144</v>
       </c>
       <c r="R129">
@@ -4968,15 +4968,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O130" s="2">
-        <f>(D130-I130+1+2*K130)/M130</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P130" s="2">
-        <f>(C130-H130+1+2*J130)/L130</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q130" s="3">
-        <f>(2*O130*P130*E130*F130*G130*I130*H130)/(N130/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>9.156871603960397</v>
       </c>
       <c r="R130">
@@ -5021,15 +5021,15 @@
         <v>0.1</v>
       </c>
       <c r="O131" s="2">
-        <f>(D131-I131+1+2*K131)/M131</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P131" s="2">
-        <f>(C131-H131+1+2*J131)/L131</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q131" s="3">
-        <f>(2*O131*P131*E131*F131*G131*I131*H131)/(N131/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>2.3121100800000001</v>
       </c>
       <c r="R131">
@@ -5074,15 +5074,15 @@
         <v>0.221</v>
       </c>
       <c r="O132" s="2">
-        <f>(D132-I132+1+2*K132)/M132</f>
+        <f t="shared" si="8"/>
         <v>224</v>
       </c>
       <c r="P132" s="2">
-        <f>(C132-H132+1+2*J132)/L132</f>
+        <f t="shared" si="9"/>
         <v>224</v>
       </c>
       <c r="Q132" s="3">
-        <f>(2*O132*P132*E132*F132*G132*I132*H132)/(N132/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>1.5693054841628959</v>
       </c>
       <c r="R132">
@@ -5127,15 +5127,15 @@
         <v>0.104</v>
       </c>
       <c r="O133" s="2">
-        <f>(D133-I133+1+2*K133)/M133</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="P133" s="2">
-        <f>(C133-H133+1+2*J133)/L133</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="Q133" s="3">
-        <f>(2*O133*P133*E133*F133*G133*I133*H133)/(N133/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>35.570924307692316</v>
       </c>
       <c r="R133">
@@ -5181,15 +5181,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O134" s="2">
-        <f>(D134-I134+1+2*K134)/M134</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="P134" s="2">
-        <f>(C134-H134+1+2*J134)/L134</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="Q134" s="3">
-        <f>(2*O134*P134*E134*F134*G134*I134*H134)/(N134/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>36.627486415841588</v>
       </c>
       <c r="R134">
@@ -5235,15 +5235,15 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O135" s="2">
-        <f>(D135-I135+1+2*K135)/M135</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P135" s="2">
-        <f>(C135-H135+1+2*J135)/L135</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q135" s="3">
-        <f>(2*O135*P135*E135*F135*G135*I135*H135)/(N135/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>38.535167999999999</v>
       </c>
       <c r="R135">
@@ -5288,15 +5288,15 @@
         <v>0.105</v>
       </c>
       <c r="O136" s="2">
-        <f>(D136-I136+1+2*K136)/M136</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P136" s="2">
-        <f>(C136-H136+1+2*J136)/L136</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q136" s="3">
-        <f>(2*O136*P136*E136*F136*G136*I136*H136)/(N136/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>17.616076799999998</v>
       </c>
       <c r="R136">
@@ -5341,15 +5341,15 @@
         <v>0.1</v>
       </c>
       <c r="O137" s="2">
-        <f>(D137-I137+1+2*K137)/M137</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P137" s="2">
-        <f>(C137-H137+1+2*J137)/L137</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q137" s="3">
-        <f>(2*O137*P137*E137*F137*G137*I137*H137)/(N137/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>4.6242201600000001</v>
       </c>
       <c r="R137">
@@ -5394,15 +5394,15 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O138" s="2">
-        <f>(D138-I138+1+2*K138)/M138</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="P138" s="2">
-        <f>(C138-H138+1+2*J138)/L138</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="Q138" s="3">
-        <f>(2*O138*P138*E138*F138*G138*I138*H138)/(N138/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>1.6277786482758621</v>
       </c>
       <c r="R138">
@@ -5447,15 +5447,15 @@
         <v>0.105</v>
       </c>
       <c r="O139" s="2">
-        <f>(D139-I139+1+2*K139)/M139</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P139" s="2">
-        <f>(C139-H139+1+2*J139)/L139</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q139" s="3">
-        <f>(2*O139*P139*E139*F139*G139*I139*H139)/(N139/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>2.2937599999999998</v>
       </c>
       <c r="R139">
@@ -5500,15 +5500,15 @@
         <v>1.4E-2</v>
       </c>
       <c r="O140" s="2">
-        <f>(D140-I140+1+2*K140)/M140</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P140" s="2">
-        <f>(C140-H140+1+2*J140)/L140</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q140" s="3">
-        <f>(2*O140*P140*E140*F140*G140*I140*H140)/(N140/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>1.3762559999999999</v>
       </c>
       <c r="R140">
@@ -5553,15 +5553,15 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O141" s="2">
-        <f>(D141-I141+1+2*K141)/M141</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P141" s="2">
-        <f>(C141-H141+1+2*J141)/L141</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q141" s="3">
-        <f>(2*O141*P141*E141*F141*G141*I141*H141)/(N141/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>1.7709176470588235</v>
       </c>
       <c r="R141">
@@ -5606,15 +5606,15 @@
         <v>0.02</v>
       </c>
       <c r="O142" s="2">
-        <f>(D142-I142+1+2*K142)/M142</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P142" s="2">
-        <f>(C142-H142+1+2*J142)/L142</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q142" s="3">
-        <f>(2*O142*P142*E142*F142*G142*I142*H142)/(N142/1000)/10^12</f>
+        <f t="shared" si="7"/>
         <v>1.9267583999999998</v>
       </c>
       <c r="R142">
@@ -5659,15 +5659,15 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O143" s="2">
-        <f>(D143-I143+1+2*K143)/M143</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P143" s="2">
-        <f>(C143-H143+1+2*J143)/L143</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q143" s="3">
-        <f>(2*O143*P143*E143*F143*G143*I143*H143)/(N143/1000)/10^12</f>
+        <f t="shared" ref="Q143:Q174" si="10">(2*O143*P143*E143*F143*G143*I143*H143)/(N143/1000)/10^12</f>
         <v>0.80281599999999997</v>
       </c>
       <c r="R143">
@@ -5712,15 +5712,15 @@
         <v>0.41799999999999998</v>
       </c>
       <c r="O144" s="2">
-        <f>(D144-I144+1+2*K144)/M144</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P144" s="2">
-        <f>(C144-H144+1+2*J144)/L144</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q144" s="3">
-        <f>(2*O144*P144*E144*F144*G144*I144*H144)/(N144/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>0.62419904306220109</v>
       </c>
       <c r="R144">
@@ -5765,15 +5765,15 @@
         <v>0.27300000000000002</v>
       </c>
       <c r="O145" s="2">
-        <f>(D145-I145+1+2*K145)/M145</f>
+        <f t="shared" si="8"/>
         <v>112</v>
       </c>
       <c r="P145" s="2">
-        <f>(C145-H145+1+2*J145)/L145</f>
+        <f t="shared" si="9"/>
         <v>112</v>
       </c>
       <c r="Q145" s="3">
-        <f>(2*O145*P145*E145*F145*G145*I145*H145)/(N145/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.7291421538461538</v>
       </c>
       <c r="R145">
@@ -5818,15 +5818,15 @@
         <v>0.105</v>
       </c>
       <c r="O146" s="2">
-        <f>(D146-I146+1+2*K146)/M146</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P146" s="2">
-        <f>(C146-H146+1+2*J146)/L146</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q146" s="3">
-        <f>(2*O146*P146*E146*F146*G146*I146*H146)/(N146/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.5875199999999996</v>
       </c>
       <c r="R146">
@@ -5871,15 +5871,15 @@
         <v>1.4E-2</v>
       </c>
       <c r="O147" s="2">
-        <f>(D147-I147+1+2*K147)/M147</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P147" s="2">
-        <f>(C147-H147+1+2*J147)/L147</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q147" s="3">
-        <f>(2*O147*P147*E147*F147*G147*I147*H147)/(N147/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.7525119999999998</v>
       </c>
       <c r="R147">
@@ -5924,15 +5924,15 @@
         <v>0.13600000000000001</v>
       </c>
       <c r="O148" s="2">
-        <f>(D148-I148+1+2*K148)/M148</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P148" s="2">
-        <f>(C148-H148+1+2*J148)/L148</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q148" s="3">
-        <f>(2*O148*P148*E148*F148*G148*I148*H148)/(N148/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.541835294117647</v>
       </c>
       <c r="R148">
@@ -5977,15 +5977,15 @@
         <v>0.02</v>
       </c>
       <c r="O149" s="2">
-        <f>(D149-I149+1+2*K149)/M149</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P149" s="2">
-        <f>(C149-H149+1+2*J149)/L149</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q149" s="3">
-        <f>(2*O149*P149*E149*F149*G149*I149*H149)/(N149/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.8535167999999995</v>
       </c>
       <c r="R149">
@@ -6030,15 +6030,15 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="O150" s="2">
-        <f>(D150-I150+1+2*K150)/M150</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P150" s="2">
-        <f>(C150-H150+1+2*J150)/L150</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q150" s="3">
-        <f>(2*O150*P150*E150*F150*G150*I150*H150)/(N150/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.6056319999999999</v>
       </c>
       <c r="R150">
@@ -6083,15 +6083,15 @@
         <v>0.41899999999999998</v>
       </c>
       <c r="O151" s="2">
-        <f>(D151-I151+1+2*K151)/M151</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P151" s="2">
-        <f>(C151-H151+1+2*J151)/L151</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q151" s="3">
-        <f>(2*O151*P151*E151*F151*G151*I151*H151)/(N151/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.2454186157517901</v>
       </c>
       <c r="R151">
@@ -6136,15 +6136,15 @@
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="O152" s="2">
-        <f>(D152-I152+1+2*K152)/M152</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="P152" s="2">
-        <f>(C152-H152+1+2*J152)/L152</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="Q152" s="3">
-        <f>(2*O152*P152*E152*F152*G152*I152*H152)/(N152/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>10.509591272727274</v>
       </c>
       <c r="R152">
@@ -6189,15 +6189,15 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="O153" s="2">
-        <f>(D153-I153+1+2*K153)/M153</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P153" s="2">
-        <f>(C153-H153+1+2*J153)/L153</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q153" s="3">
-        <f>(2*O153*P153*E153*F153*G153*I153*H153)/(N153/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.3354647272727274</v>
       </c>
       <c r="R153">
@@ -6242,15 +6242,15 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O154" s="2">
-        <f>(D154-I154+1+2*K154)/M154</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P154" s="2">
-        <f>(C154-H154+1+2*J154)/L154</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q154" s="3">
-        <f>(2*O154*P154*E154*F154*G154*I154*H154)/(N154/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>7.0063941818181821</v>
       </c>
       <c r="R154">
@@ -6295,15 +6295,15 @@
         <v>1.2E-2</v>
       </c>
       <c r="O155" s="2">
-        <f>(D155-I155+1+2*K155)/M155</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P155" s="2">
-        <f>(C155-H155+1+2*J155)/L155</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q155" s="3">
-        <f>(2*O155*P155*E155*F155*G155*I155*H155)/(N155/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.1408426666666664</v>
       </c>
       <c r="R155">
@@ -6348,15 +6348,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O156" s="2">
-        <f>(D156-I156+1+2*K156)/M156</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P156" s="2">
-        <f>(C156-H156+1+2*J156)/L156</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q156" s="3">
-        <f>(2*O156*P156*E156*F156*G156*I156*H156)/(N156/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.7126741333333335</v>
       </c>
       <c r="R156">
@@ -6401,15 +6401,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O157" s="2">
-        <f>(D157-I157+1+2*K157)/M157</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P157" s="2">
-        <f>(C157-H157+1+2*J157)/L157</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q157" s="3">
-        <f>(2*O157*P157*E157*F157*G157*I157*H157)/(N157/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>4.128768</v>
       </c>
       <c r="R157">
@@ -6454,15 +6454,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O158" s="2">
-        <f>(D158-I158+1+2*K158)/M158</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P158" s="2">
-        <f>(C158-H158+1+2*J158)/L158</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q158" s="3">
-        <f>(2*O158*P158*E158*F158*G158*I158*H158)/(N158/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.7126741333333335</v>
       </c>
       <c r="R158">
@@ -6507,15 +6507,15 @@
         <v>0.02</v>
       </c>
       <c r="O159" s="2">
-        <f>(D159-I159+1+2*K159)/M159</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P159" s="2">
-        <f>(C159-H159+1+2*J159)/L159</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q159" s="3">
-        <f>(2*O159*P159*E159*F159*G159*I159*H159)/(N159/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>1.2845055999999999</v>
       </c>
       <c r="R159">
@@ -6560,16 +6560,16 @@
         <v>0.05</v>
       </c>
       <c r="O160" s="2">
-        <f>(D160-I160+1+2*K160)/M160</f>
-        <v>6.5</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="P160" s="2">
-        <f>(C160-H160+1+2*J160)/L160</f>
-        <v>6.5</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="Q160" s="3">
-        <f>(2*O160*P160*E160*F160*G160*I160*H160)/(N160/1000)/10^12</f>
-        <v>1.7720934399999999</v>
+        <f t="shared" si="10"/>
+        <v>2.0552089599999999</v>
       </c>
       <c r="R160">
         <v>1</v>
@@ -6613,15 +6613,15 @@
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="O161" s="2">
-        <f>(D161-I161+1+2*K161)/M161</f>
+        <f t="shared" si="8"/>
         <v>56</v>
       </c>
       <c r="P161" s="2">
-        <f>(C161-H161+1+2*J161)/L161</f>
+        <f t="shared" si="9"/>
         <v>56</v>
       </c>
       <c r="Q161" s="3">
-        <f>(2*O161*P161*E161*F161*G161*I161*H161)/(N161/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>14.450688</v>
       </c>
       <c r="R161">
@@ -6666,15 +6666,15 @@
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="O162" s="2">
-        <f>(D162-I162+1+2*K162)/M162</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P162" s="2">
-        <f>(C162-H162+1+2*J162)/L162</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q162" s="3">
-        <f>(2*O162*P162*E162*F162*G162*I162*H162)/(N162/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.4466773333333331</v>
       </c>
       <c r="R162">
@@ -6719,15 +6719,15 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="O163" s="2">
-        <f>(D163-I163+1+2*K163)/M163</f>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="P163" s="2">
-        <f>(C163-H163+1+2*J163)/L163</f>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="Q163" s="3">
-        <f>(2*O163*P163*E163*F163*G163*I163*H163)/(N163/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>14.012788363636364</v>
       </c>
       <c r="R163">
@@ -6772,15 +6772,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O164" s="2">
-        <f>(D164-I164+1+2*K164)/M164</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P164" s="2">
-        <f>(C164-H164+1+2*J164)/L164</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q164" s="3">
-        <f>(2*O164*P164*E164*F164*G164*I164*H164)/(N164/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.0223661176470591</v>
       </c>
       <c r="R164">
@@ -6825,15 +6825,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O165" s="2">
-        <f>(D165-I165+1+2*K165)/M165</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P165" s="2">
-        <f>(C165-H165+1+2*J165)/L165</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q165" s="3">
-        <f>(2*O165*P165*E165*F165*G165*I165*H165)/(N165/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.0223661176470591</v>
       </c>
       <c r="R165">
@@ -6878,15 +6878,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O166" s="2">
-        <f>(D166-I166+1+2*K166)/M166</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="P166" s="2">
-        <f>(C166-H166+1+2*J166)/L166</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="Q166" s="3">
-        <f>(2*O166*P166*E166*F166*G166*I166*H166)/(N166/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>8.257536</v>
       </c>
       <c r="R166">
@@ -6931,15 +6931,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O167" s="2">
-        <f>(D167-I167+1+2*K167)/M167</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P167" s="2">
-        <f>(C167-H167+1+2*J167)/L167</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q167" s="3">
-        <f>(2*O167*P167*E167*F167*G167*I167*H167)/(N167/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>3.425348266666667</v>
       </c>
       <c r="R167">
@@ -6984,15 +6984,15 @@
         <v>0.02</v>
       </c>
       <c r="O168" s="2">
-        <f>(D168-I168+1+2*K168)/M168</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="P168" s="2">
-        <f>(C168-H168+1+2*J168)/L168</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="Q168" s="3">
-        <f>(2*O168*P168*E168*F168*G168*I168*H168)/(N168/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>2.5690111999999998</v>
       </c>
       <c r="R168">
@@ -7037,16 +7037,16 @@
         <v>0.05</v>
       </c>
       <c r="O169" s="2">
-        <f>(D169-I169+1+2*K169)/M169</f>
-        <v>6.5</v>
+        <f t="shared" si="8"/>
+        <v>7</v>
       </c>
       <c r="P169" s="2">
-        <f>(C169-H169+1+2*J169)/L169</f>
-        <v>6.5</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="Q169" s="3">
-        <f>(2*O169*P169*E169*F169*G169*I169*H169)/(N169/1000)/10^12</f>
-        <v>3.5441868799999998</v>
+        <f t="shared" si="10"/>
+        <v>4.1104179199999997</v>
       </c>
       <c r="R169">
         <v>1</v>
@@ -7090,16 +7090,16 @@
         <v>0.153</v>
       </c>
       <c r="O170" s="2">
-        <f>(D170-I170+1+2*K170)/M170</f>
-        <v>79.5</v>
+        <f t="shared" si="8"/>
+        <v>349</v>
       </c>
       <c r="P170" s="2">
-        <f>(C170-H170+1+2*J170)/L170</f>
-        <v>349</v>
+        <f t="shared" si="9"/>
+        <v>80</v>
       </c>
       <c r="Q170" s="3">
-        <f>(2*O170*P170*E170*F170*G170*I170*H170)/(N170/1000)/10^12</f>
-        <v>0.58029803921568623</v>
+        <f t="shared" si="10"/>
+        <v>0.58394771241830068</v>
       </c>
       <c r="R170">
         <v>1</v>
@@ -7143,15 +7143,15 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="O171" s="2">
-        <f>(D171-I171+1+2*K171)/M171</f>
+        <f t="shared" si="8"/>
+        <v>350</v>
+      </c>
+      <c r="P171" s="2">
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
-      <c r="P171" s="2">
-        <f>(C171-H171+1+2*J171)/L171</f>
-        <v>350</v>
-      </c>
       <c r="Q171" s="3">
-        <f>(2*O171*P171*E171*F171*G171*I171*H171)/(N171/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>17.796413793103451</v>
       </c>
       <c r="R171">
@@ -7196,15 +7196,15 @@
         <v>7.2999999999999995E-2</v>
       </c>
       <c r="O172" s="2">
-        <f>(D172-I172+1+2*K172)/M172</f>
+        <f t="shared" si="8"/>
+        <v>174</v>
+      </c>
+      <c r="P172" s="2">
+        <f t="shared" si="9"/>
         <v>39</v>
       </c>
-      <c r="P172" s="2">
-        <f>(C172-H172+1+2*J172)/L172</f>
-        <v>174</v>
-      </c>
       <c r="Q172" s="3">
-        <f>(2*O172*P172*E172*F172*G172*I172*H172)/(N172/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>38.075967123287668</v>
       </c>
       <c r="R172">
@@ -7249,15 +7249,15 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="O173" s="2">
-        <f>(D173-I173+1+2*K173)/M173</f>
+        <f t="shared" si="8"/>
+        <v>175</v>
+      </c>
+      <c r="P173" s="2">
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="P173" s="2">
-        <f>(C173-H173+1+2*J173)/L173</f>
-        <v>175</v>
-      </c>
       <c r="Q173" s="3">
-        <f>(2*O173*P173*E173*F173*G173*I173*H173)/(N173/1000)/10^12</f>
+        <f t="shared" si="10"/>
         <v>38.229333333333336</v>
       </c>
       <c r="R173">
@@ -7302,16 +7302,16 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="O174" s="2">
-        <f>(D174-I174+1+2*K174)/M174</f>
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="P174" s="2">
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="P174" s="2">
-        <f>(C174-H174+1+2*J174)/L174</f>
-        <v>86.5</v>
-      </c>
       <c r="Q174" s="3">
-        <f>(2*O174*P174*E174*F174*G174*I174*H174)/(N174/1000)/10^12</f>
-        <v>35.902805333333333</v>
+        <f t="shared" si="10"/>
+        <v>36.110335999999997</v>
       </c>
       <c r="R174">
         <v>1</v>
@@ -7355,15 +7355,15 @@
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="O175" s="2">
-        <f>(D175-I175+1+2*K175)/M175</f>
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="P175" s="2">
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="P175" s="2">
-        <f>(C175-H175+1+2*J175)/L175</f>
-        <v>84</v>
-      </c>
       <c r="Q175" s="3">
-        <f>(2*O175*P175*E175*F175*G175*I175*H175)/(N175/1000)/10^12</f>
+        <f t="shared" ref="Q175:Q206" si="11">(2*O175*P175*E175*F175*G175*I175*H175)/(N175/1000)/10^12</f>
         <v>35.38944</v>
       </c>
       <c r="R175">
@@ -7408,15 +7408,15 @@
         <v>0.161</v>
       </c>
       <c r="O176" s="2">
-        <f>(D176-I176+1+2*K176)/M176</f>
+        <f t="shared" ref="O176:O217" si="12">1+ROUNDDOWN((($C176-$H176+2*$J176)/$L176),0)</f>
+        <v>41</v>
+      </c>
+      <c r="P176" s="2">
+        <f t="shared" ref="P176:P217" si="13">1+ROUNDDOWN((($D176-$I176+2*$K176)/$M176),0)</f>
         <v>9</v>
       </c>
-      <c r="P176" s="2">
-        <f>(C176-H176+1+2*J176)/L176</f>
-        <v>41</v>
-      </c>
       <c r="Q176" s="3">
-        <f>(2*O176*P176*E176*F176*G176*I176*H176)/(N176/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>15.020362732919255</v>
       </c>
       <c r="R176">
@@ -7461,15 +7461,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O177" s="2">
-        <f>(D177-I177+1+2*K177)/M177</f>
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="P177" s="2">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="P177" s="2">
-        <f>(C177-H177+1+2*J177)/L177</f>
-        <v>42</v>
-      </c>
       <c r="Q177" s="3">
-        <f>(2*O177*P177*E177*F177*G177*I177*H177)/(N177/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>19.621867722772276</v>
       </c>
       <c r="R177">
@@ -7514,16 +7514,16 @@
         <v>0.29099999999999998</v>
       </c>
       <c r="O178" s="2">
-        <f>(D178-I178+1+2*K178)/M178</f>
-        <v>79.5</v>
+        <f t="shared" si="12"/>
+        <v>349</v>
       </c>
       <c r="P178" s="2">
-        <f>(C178-H178+1+2*J178)/L178</f>
-        <v>349</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="Q178" s="3">
-        <f>(2*O178*P178*E178*F178*G178*I178*H178)/(N178/1000)/10^12</f>
-        <v>0.61021030927835063</v>
+        <f t="shared" si="11"/>
+        <v>0.61404810996563575</v>
       </c>
       <c r="R178">
         <v>1</v>
@@ -7567,15 +7567,15 @@
         <v>0.20899999999999999</v>
       </c>
       <c r="O179" s="2">
-        <f>(D179-I179+1+2*K179)/M179</f>
+        <f t="shared" si="12"/>
+        <v>350</v>
+      </c>
+      <c r="P179" s="2">
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="P179" s="2">
-        <f>(C179-H179+1+2*J179)/L179</f>
-        <v>350</v>
-      </c>
       <c r="Q179" s="3">
-        <f>(2*O179*P179*E179*F179*G179*I179*H179)/(N179/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>19.75487081339713</v>
       </c>
       <c r="R179">
@@ -7620,15 +7620,15 @@
         <v>0.14499999999999999</v>
       </c>
       <c r="O180" s="2">
-        <f>(D180-I180+1+2*K180)/M180</f>
+        <f t="shared" si="12"/>
+        <v>174</v>
+      </c>
+      <c r="P180" s="2">
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="P180" s="2">
-        <f>(C180-H180+1+2*J180)/L180</f>
-        <v>174</v>
-      </c>
       <c r="Q180" s="3">
-        <f>(2*O180*P180*E180*F180*G180*I180*H180)/(N180/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>38.338560000000001</v>
       </c>
       <c r="R180">
@@ -7673,15 +7673,15 @@
         <v>0.106</v>
       </c>
       <c r="O181" s="2">
-        <f>(D181-I181+1+2*K181)/M181</f>
+        <f t="shared" si="12"/>
+        <v>175</v>
+      </c>
+      <c r="P181" s="2">
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="P181" s="2">
-        <f>(C181-H181+1+2*J181)/L181</f>
-        <v>175</v>
-      </c>
       <c r="Q181" s="3">
-        <f>(2*O181*P181*E181*F181*G181*I181*H181)/(N181/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>38.950641509433964</v>
       </c>
       <c r="R181">
@@ -7726,16 +7726,16 @@
         <v>0.13500000000000001</v>
       </c>
       <c r="O182" s="2">
-        <f>(D182-I182+1+2*K182)/M182</f>
+        <f t="shared" si="12"/>
+        <v>87</v>
+      </c>
+      <c r="P182" s="2">
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="P182" s="2">
-        <f>(C182-H182+1+2*J182)/L182</f>
-        <v>86.5</v>
-      </c>
       <c r="Q182" s="3">
-        <f>(2*O182*P182*E182*F182*G182*I182*H182)/(N182/1000)/10^12</f>
-        <v>39.892005925925922</v>
+        <f t="shared" si="11"/>
+        <v>40.122595555555556</v>
       </c>
       <c r="R182">
         <v>1</v>
@@ -7779,15 +7779,15 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="O183" s="2">
-        <f>(D183-I183+1+2*K183)/M183</f>
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="P183" s="2">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="P183" s="2">
-        <f>(C183-H183+1+2*J183)/L183</f>
-        <v>84</v>
-      </c>
       <c r="Q183" s="3">
-        <f>(2*O183*P183*E183*F183*G183*I183*H183)/(N183/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>41.287680000000002</v>
       </c>
       <c r="R183">
@@ -7832,15 +7832,15 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="O184" s="2">
-        <f>(D184-I184+1+2*K184)/M184</f>
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="P184" s="2">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="P184" s="2">
-        <f>(C184-H184+1+2*J184)/L184</f>
-        <v>41</v>
-      </c>
       <c r="Q184" s="3">
-        <f>(2*O184*P184*E184*F184*G184*I184*H184)/(N184/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>29.855288888888886</v>
       </c>
       <c r="R184">
@@ -7885,15 +7885,15 @@
         <v>0.184</v>
       </c>
       <c r="O185" s="2">
-        <f>(D185-I185+1+2*K185)/M185</f>
+        <f t="shared" si="12"/>
+        <v>42</v>
+      </c>
+      <c r="P185" s="2">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="P185" s="2">
-        <f>(C185-H185+1+2*J185)/L185</f>
-        <v>42</v>
-      </c>
       <c r="Q185" s="3">
-        <f>(2*O185*P185*E185*F185*G185*I185*H185)/(N185/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>21.541398260869567</v>
       </c>
       <c r="R185">
@@ -7939,15 +7939,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O186" s="2">
-        <f>(D186-I186+1+2*K186)/M186</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="P186" s="2">
-        <f>(C186-H186+1+2*J186)/L186</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="Q186" s="3">
-        <f>(2*O186*P186*E186*F186*G186*I186*H186)/(N186/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.4084446315789476</v>
       </c>
       <c r="R186">
@@ -7993,15 +7993,15 @@
         <v>1.2E-2</v>
       </c>
       <c r="O187" s="2">
-        <f>(D187-I187+1+2*K187)/M187</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="P187" s="2">
-        <f>(C187-H187+1+2*J187)/L187</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="Q187" s="3">
-        <f>(2*O187*P187*E187*F187*G187*I187*H187)/(N187/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>8.5633706666666658</v>
       </c>
       <c r="R187">
@@ -8047,15 +8047,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O188" s="2">
-        <f>(D188-I188+1+2*K188)/M188</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="P188" s="2">
-        <f>(C188-H188+1+2*J188)/L188</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="Q188" s="3">
-        <f>(2*O188*P188*E188*F188*G188*I188*H188)/(N188/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="R188">
@@ -8101,15 +8101,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O189" s="2">
-        <f>(D189-I189+1+2*K189)/M189</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="P189" s="2">
-        <f>(C189-H189+1+2*J189)/L189</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="Q189" s="3">
-        <f>(2*O189*P189*E189*F189*G189*I189*H189)/(N189/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>3.425348266666667</v>
       </c>
       <c r="R189">
@@ -8155,15 +8155,15 @@
         <v>0.02</v>
       </c>
       <c r="O190" s="2">
-        <f>(D190-I190+1+2*K190)/M190</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="P190" s="2">
-        <f>(C190-H190+1+2*J190)/L190</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="Q190" s="3">
-        <f>(2*O190*P190*E190*F190*G190*I190*H190)/(N190/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.1380223999999997</v>
       </c>
       <c r="R190">
@@ -8209,15 +8209,15 @@
         <v>0.02</v>
       </c>
       <c r="O191" s="2">
-        <f>(D191-I191+1+2*K191)/M191</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="P191" s="2">
-        <f>(C191-H191+1+2*J191)/L191</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="Q191" s="3">
-        <f>(2*O191*P191*E191*F191*G191*I191*H191)/(N191/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.1380223999999997</v>
       </c>
       <c r="R191">
@@ -8263,15 +8263,15 @@
         <v>0.02</v>
       </c>
       <c r="O192" s="2">
-        <f>(D192-I192+1+2*K192)/M192</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P192" s="2">
-        <f>(C192-H192+1+2*J192)/L192</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q192" s="3">
-        <f>(2*O192*P192*E192*F192*G192*I192*H192)/(N192/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.5690111999999998</v>
       </c>
       <c r="R192">
@@ -8317,15 +8317,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O193" s="2">
-        <f>(D193-I193+1+2*K193)/M193</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P193" s="2">
-        <f>(C193-H193+1+2*J193)/L193</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q193" s="3">
-        <f>(2*O193*P193*E193*F193*G193*I193*H193)/(N193/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="R193">
@@ -8371,15 +8371,15 @@
         <v>0.02</v>
       </c>
       <c r="O194" s="2">
-        <f>(D194-I194+1+2*K194)/M194</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P194" s="2">
-        <f>(C194-H194+1+2*J194)/L194</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q194" s="3">
-        <f>(2*O194*P194*E194*F194*G194*I194*H194)/(N194/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>10.276044799999999</v>
       </c>
       <c r="R194">
@@ -8425,15 +8425,15 @@
         <v>0.03</v>
       </c>
       <c r="O195" s="2">
-        <f>(D195-I195+1+2*K195)/M195</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P195" s="2">
-        <f>(C195-H195+1+2*J195)/L195</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q195" s="3">
-        <f>(2*O195*P195*E195*F195*G195*I195*H195)/(N195/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>3.425348266666667</v>
       </c>
       <c r="R195">
@@ -8479,15 +8479,15 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O196" s="2">
-        <f>(D196-I196+1+2*K196)/M196</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P196" s="2">
-        <f>(C196-H196+1+2*J196)/L196</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q196" s="3">
-        <f>(2*O196*P196*E196*F196*G196*I196*H196)/(N196/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>6.0447322352941182</v>
       </c>
       <c r="R196">
@@ -8533,15 +8533,15 @@
         <v>0.03</v>
       </c>
       <c r="O197" s="2">
-        <f>(D197-I197+1+2*K197)/M197</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P197" s="2">
-        <f>(C197-H197+1+2*J197)/L197</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q197" s="3">
-        <f>(2*O197*P197*E197*F197*G197*I197*H197)/(N197/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>1.7126741333333335</v>
       </c>
       <c r="R197">
@@ -8587,15 +8587,15 @@
         <v>0.10100000000000001</v>
       </c>
       <c r="O198" s="2">
-        <f>(D198-I198+1+2*K198)/M198</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P198" s="2">
-        <f>(C198-H198+1+2*J198)/L198</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q198" s="3">
-        <f>(2*O198*P198*E198*F198*G198*I198*H198)/(N198/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.2892179009900993</v>
       </c>
       <c r="R198">
@@ -8641,15 +8641,15 @@
         <v>0.02</v>
       </c>
       <c r="O199" s="2">
-        <f>(D199-I199+1+2*K199)/M199</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P199" s="2">
-        <f>(C199-H199+1+2*J199)/L199</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q199" s="3">
-        <f>(2*O199*P199*E199*F199*G199*I199*H199)/(N199/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.1380223999999997</v>
       </c>
       <c r="R199">
@@ -8695,15 +8695,15 @@
         <v>0.03</v>
       </c>
       <c r="O200" s="2">
-        <f>(D200-I200+1+2*K200)/M200</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P200" s="2">
-        <f>(C200-H200+1+2*J200)/L200</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q200" s="3">
-        <f>(2*O200*P200*E200*F200*G200*I200*H200)/(N200/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="R200">
@@ -8749,15 +8749,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O201" s="2">
-        <f>(D201-I201+1+2*K201)/M201</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P201" s="2">
-        <f>(C201-H201+1+2*J201)/L201</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q201" s="3">
-        <f>(2*O201*P201*E201*F201*G201*I201*H201)/(N201/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>2.0971519999999999</v>
       </c>
       <c r="R201">
@@ -8803,15 +8803,15 @@
         <v>3.9E-2</v>
       </c>
       <c r="O202" s="2">
-        <f>(D202-I202+1+2*K202)/M202</f>
+        <f t="shared" si="12"/>
         <v>112</v>
       </c>
       <c r="P202" s="2">
-        <f>(C202-H202+1+2*J202)/L202</f>
+        <f t="shared" si="13"/>
         <v>112</v>
       </c>
       <c r="Q202" s="3">
-        <f>(2*O202*P202*E202*F202*G202*I202*H202)/(N202/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>5.2697665641025644</v>
       </c>
       <c r="R202">
@@ -8857,15 +8857,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O203" s="2">
-        <f>(D203-I203+1+2*K203)/M203</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="P203" s="2">
-        <f>(C203-H203+1+2*J203)/L203</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="Q203" s="3">
-        <f>(2*O203*P203*E203*F203*G203*I203*H203)/(N203/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>10.816889263157895</v>
       </c>
       <c r="R203">
@@ -8911,15 +8911,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O204" s="2">
-        <f>(D204-I204+1+2*K204)/M204</f>
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
       <c r="P204" s="2">
-        <f>(C204-H204+1+2*J204)/L204</f>
+        <f t="shared" si="13"/>
         <v>56</v>
       </c>
       <c r="Q204" s="3">
-        <f>(2*O204*P204*E204*F204*G204*I204*H204)/(N204/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>10.816889263157895</v>
       </c>
       <c r="R204">
@@ -8965,15 +8965,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O205" s="2">
-        <f>(D205-I205+1+2*K205)/M205</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="P205" s="2">
-        <f>(C205-H205+1+2*J205)/L205</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="Q205" s="3">
-        <f>(2*O205*P205*E205*F205*G205*I205*H205)/(N205/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="R205">
@@ -9019,15 +9019,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="O206" s="2">
-        <f>(D206-I206+1+2*K206)/M206</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="P206" s="2">
-        <f>(C206-H206+1+2*J206)/L206</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="Q206" s="3">
-        <f>(2*O206*P206*E206*F206*G206*I206*H206)/(N206/1000)/10^12</f>
+        <f t="shared" si="11"/>
         <v>13.701393066666668</v>
       </c>
       <c r="R206">
@@ -9073,15 +9073,15 @@
         <v>0.02</v>
       </c>
       <c r="O207" s="2">
-        <f>(D207-I207+1+2*K207)/M207</f>
+        <f t="shared" si="12"/>
         <v>28</v>
       </c>
       <c r="P207" s="2">
-        <f>(C207-H207+1+2*J207)/L207</f>
+        <f t="shared" si="13"/>
         <v>28</v>
       </c>
       <c r="Q207" s="3">
-        <f>(2*O207*P207*E207*F207*G207*I207*H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="Q207:Q238" si="14">(2*O207*P207*E207*F207*G207*I207*H207)/(N207/1000)/10^12</f>
         <v>10.276044799999999</v>
       </c>
       <c r="R207">
@@ -9127,15 +9127,15 @@
         <v>0.02</v>
       </c>
       <c r="O208" s="2">
-        <f>(D208-I208+1+2*K208)/M208</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P208" s="2">
-        <f>(C208-H208+1+2*J208)/L208</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q208" s="3">
-        <f>(2*O208*P208*E208*F208*G208*I208*H208)/(N208/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>5.1380223999999997</v>
       </c>
       <c r="R208">
@@ -9181,15 +9181,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O209" s="2">
-        <f>(D209-I209+1+2*K209)/M209</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P209" s="2">
-        <f>(C209-H209+1+2*J209)/L209</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q209" s="3">
-        <f>(2*O209*P209*E209*F209*G209*I209*H209)/(N209/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>10.816889263157895</v>
       </c>
       <c r="R209">
@@ -9235,15 +9235,15 @@
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="O210" s="2">
-        <f>(D210-I210+1+2*K210)/M210</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P210" s="2">
-        <f>(C210-H210+1+2*J210)/L210</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q210" s="3">
-        <f>(2*O210*P210*E210*F210*G210*I210*H210)/(N210/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>14.173854896551724</v>
       </c>
       <c r="R210">
@@ -9289,15 +9289,15 @@
         <v>0.03</v>
       </c>
       <c r="O211" s="2">
-        <f>(D211-I211+1+2*K211)/M211</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P211" s="2">
-        <f>(C211-H211+1+2*J211)/L211</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q211" s="3">
-        <f>(2*O211*P211*E211*F211*G211*I211*H211)/(N211/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>6.8506965333333341</v>
       </c>
       <c r="R211">
@@ -9343,15 +9343,15 @@
         <v>1.9E-2</v>
       </c>
       <c r="O212" s="2">
-        <f>(D212-I212+1+2*K212)/M212</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="P212" s="2">
-        <f>(C212-H212+1+2*J212)/L212</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="Q212" s="3">
-        <f>(2*O212*P212*E212*F212*G212*I212*H212)/(N212/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>10.816889263157895</v>
       </c>
       <c r="R212">
@@ -9397,15 +9397,15 @@
         <v>0.03</v>
       </c>
       <c r="O213" s="2">
-        <f>(D213-I213+1+2*K213)/M213</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P213" s="2">
-        <f>(C213-H213+1+2*J213)/L213</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q213" s="3">
-        <f>(2*O213*P213*E213*F213*G213*I213*H213)/(N213/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>3.425348266666667</v>
       </c>
       <c r="R213">
@@ -9451,15 +9451,15 @@
         <v>0.1</v>
       </c>
       <c r="O214" s="2">
-        <f>(D214-I214+1+2*K214)/M214</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P214" s="2">
-        <f>(C214-H214+1+2*J214)/L214</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q214" s="3">
-        <f>(2*O214*P214*E214*F214*G214*I214*H214)/(N214/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>4.6242201600000001</v>
       </c>
       <c r="R214">
@@ -9505,15 +9505,15 @@
         <v>0.02</v>
       </c>
       <c r="O215" s="2">
-        <f>(D215-I215+1+2*K215)/M215</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P215" s="2">
-        <f>(C215-H215+1+2*J215)/L215</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q215" s="3">
-        <f>(2*O215*P215*E215*F215*G215*I215*H215)/(N215/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>10.276044799999999</v>
       </c>
       <c r="R215">
@@ -9559,15 +9559,15 @@
         <v>0.03</v>
       </c>
       <c r="O216" s="2">
-        <f>(D216-I216+1+2*K216)/M216</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P216" s="2">
-        <f>(C216-H216+1+2*J216)/L216</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q216" s="3">
-        <f>(2*O216*P216*E216*F216*G216*I216*H216)/(N216/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>13.701393066666668</v>
       </c>
       <c r="R216">
@@ -9613,15 +9613,15 @@
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="O217" s="2">
-        <f>(D217-I217+1+2*K217)/M217</f>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="P217" s="2">
-        <f>(C217-H217+1+2*J217)/L217</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="Q217" s="3">
-        <f>(2*O217*P217*E217*F217*G217*I217*H217)/(N217/1000)/10^12</f>
+        <f t="shared" si="14"/>
         <v>4.1943039999999998</v>
       </c>
       <c r="R217">
@@ -9699,7 +9699,7 @@
         <v>1.296</v>
       </c>
       <c r="H229" s="3">
-        <f t="shared" ref="H229:H242" si="7">(8*$E229*$D229*$C229*$C229+$E229*$D229*$C229)/(G229/1000)/10^12</f>
+        <f t="shared" ref="H229:H242" si="15">(8*$E229*$D229*$C229*$C229+$E229*$D229*$C229)/(G229/1000)/10^12</f>
         <v>8.09283950617284E-2</v>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
         <v>1.2789999999999999</v>
       </c>
       <c r="H230" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.16400813135261924</v>
       </c>
     </row>
@@ -9735,7 +9735,7 @@
         <v>1.8720000000000001</v>
       </c>
       <c r="H231" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.11204102564102564</v>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
         <v>1.9079999999999999</v>
       </c>
       <c r="H232" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.21985408805031448</v>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
         <v>1.929</v>
       </c>
       <c r="H233" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.43492130637636084</v>
       </c>
     </row>
@@ -9789,7 +9789,7 @@
         <v>5.2720000000000002</v>
       </c>
       <c r="H234" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.15912594840667676</v>
       </c>
     </row>
@@ -9807,7 +9807,7 @@
         <v>5.3029999999999999</v>
       </c>
       <c r="H235" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.31639147652272304</v>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
         <v>5.7009999999999996</v>
       </c>
       <c r="H236" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.5886069110682336</v>
       </c>
     </row>
@@ -9843,7 +9843,7 @@
         <v>6.1980000000000004</v>
       </c>
       <c r="H237" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.15227415295256533</v>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
         <v>6.8259999999999996</v>
       </c>
       <c r="H238" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.27652950483445649</v>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
         <v>6.9249999999999998</v>
       </c>
       <c r="H239" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.54515246209386281</v>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
         <v>1.994</v>
       </c>
       <c r="H240" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>3.945917753259779E-2</v>
       </c>
     </row>
@@ -9915,7 +9915,7 @@
         <v>2.222</v>
       </c>
       <c r="H241" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>7.0820522052205209E-2</v>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
         <v>2.1850000000000001</v>
       </c>
       <c r="H242" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0.14403954233409613</v>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
         <v>177.792</v>
       </c>
       <c r="H247" s="3">
-        <f t="shared" ref="H247:H299" si="8">(6*$E247*$D247*$C247*$C247+$E247*$D247*$C247)/(G247/1000)/10^12</f>
+        <f t="shared" ref="H247:H299" si="16">(6*$E247*$D247*$C247*$C247+$E247*$D247*$C247)/(G247/1000)/10^12</f>
         <v>0.20072030237580993</v>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
         <v>90.546999999999997</v>
       </c>
       <c r="H248" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.19706044374744608</v>
       </c>
     </row>
@@ -10031,7 +10031,7 @@
         <v>46.677</v>
       </c>
       <c r="H249" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.19062546916040021</v>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
         <v>346.99299999999999</v>
       </c>
       <c r="H250" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.41137964166424107</v>
       </c>
     </row>
@@ -10067,7 +10067,7 @@
         <v>176.761</v>
       </c>
       <c r="H251" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.40378210125536745</v>
       </c>
     </row>
@@ -10085,7 +10085,7 @@
         <v>90.013999999999996</v>
       </c>
       <c r="H252" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.39645459595174082</v>
       </c>
     </row>
@@ -10103,7 +10103,7 @@
         <v>47.075000000000003</v>
       </c>
       <c r="H253" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.37802761652681882</v>
       </c>
     </row>
@@ -10121,7 +10121,7 @@
         <v>380.19499999999999</v>
       </c>
       <c r="H254" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.75090864424834625</v>
       </c>
     </row>
@@ -10139,7 +10139,7 @@
         <v>192.702</v>
       </c>
       <c r="H255" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.74075959772083322</v>
       </c>
     </row>
@@ -10157,7 +10157,7 @@
         <v>98.581000000000003</v>
       </c>
       <c r="H256" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.72400288087968279</v>
       </c>
     </row>
@@ -10175,7 +10175,7 @@
         <v>51.000999999999998</v>
       </c>
       <c r="H257" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.69785494590302144</v>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
         <v>191.024</v>
       </c>
       <c r="H258" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.19762861211156713</v>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
         <v>98.846000000000004</v>
       </c>
       <c r="H259" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.19096275013657607</v>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
         <v>51.591000000000001</v>
       </c>
       <c r="H260" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.18293795429435367</v>
       </c>
     </row>
@@ -10247,7 +10247,7 @@
         <v>26.954000000000001</v>
       </c>
       <c r="H261" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.17460829798916672</v>
       </c>
     </row>
@@ -10265,7 +10265,7 @@
         <v>191.88</v>
       </c>
       <c r="H262" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.39349393370856789</v>
       </c>
     </row>
@@ -10283,7 +10283,7 @@
         <v>98.045000000000002</v>
       </c>
       <c r="H263" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.38504572390228975</v>
       </c>
     </row>
@@ -10301,7 +10301,7 @@
         <v>50.987000000000002</v>
       </c>
       <c r="H264" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.37021013199442993</v>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
         <v>27.015000000000001</v>
       </c>
       <c r="H265" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.34842806322413472</v>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
         <v>195.82</v>
       </c>
       <c r="H266" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.77115326320089883</v>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
         <v>100.44799999999999</v>
       </c>
       <c r="H267" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.75166868429436129</v>
       </c>
     </row>
@@ -10373,7 +10373,7 @@
         <v>51.768000000000001</v>
       </c>
       <c r="H268" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.72924988409828462</v>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
         <v>27.260999999999999</v>
       </c>
       <c r="H269" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.69056778019881881</v>
       </c>
     </row>
@@ -10409,7 +10409,7 @@
         <v>113.599</v>
       </c>
       <c r="H270" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.18693798360901062</v>
       </c>
     </row>
@@ -10427,7 +10427,7 @@
         <v>59.203000000000003</v>
       </c>
       <c r="H271" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.17934874921878957</v>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
         <v>31.731999999999999</v>
       </c>
       <c r="H272" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.16730719778141939</v>
       </c>
     </row>
@@ -10463,7 +10463,7 @@
         <v>17.36</v>
       </c>
       <c r="H273" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.152500999078341</v>
       </c>
     </row>
@@ -10481,7 +10481,7 @@
         <v>114.294</v>
       </c>
       <c r="H274" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.37160249881883561</v>
       </c>
     </row>
@@ -10499,7 +10499,7 @@
         <v>59.41</v>
       </c>
       <c r="H275" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.35744770240700219</v>
       </c>
     </row>
@@ -10517,7 +10517,7 @@
         <v>32.039000000000001</v>
       </c>
       <c r="H276" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.33140809638253382</v>
       </c>
     </row>
@@ -10535,7 +10535,7 @@
         <v>17.856999999999999</v>
       </c>
       <c r="H277" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.29651311463291713</v>
       </c>
     </row>
@@ -10553,7 +10553,7 @@
         <v>115.566</v>
       </c>
       <c r="H278" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.73502476506931103</v>
       </c>
     </row>
@@ -10571,7 +10571,7 @@
         <v>61.024000000000001</v>
       </c>
       <c r="H279" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.69598741478762449</v>
       </c>
     </row>
@@ -10589,7 +10589,7 @@
         <v>32.533999999999999</v>
       </c>
       <c r="H280" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.6527315423864265</v>
       </c>
     </row>
@@ -10607,7 +10607,7 @@
         <v>17.827999999999999</v>
       </c>
       <c r="H281" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.59399087816917207</v>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
         <v>286.10399999999998</v>
       </c>
       <c r="H282" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20617062326985994</v>
       </c>
     </row>
@@ -10643,7 +10643,7 @@
         <v>145.66</v>
       </c>
       <c r="H283" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.20247919813263768</v>
       </c>
     </row>
@@ -10661,7 +10661,7 @@
         <v>74.617999999999995</v>
       </c>
       <c r="H284" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.19762738213299744</v>
       </c>
     </row>
@@ -10679,7 +10679,7 @@
         <v>38.747999999999998</v>
       </c>
       <c r="H285" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.18978058015897595</v>
       </c>
     </row>
@@ -10697,7 +10697,7 @@
         <v>285.04599999999999</v>
       </c>
       <c r="H286" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.41387172596703692</v>
       </c>
     </row>
@@ -10715,7 +10715,7 @@
         <v>146.02699999999999</v>
       </c>
       <c r="H287" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.40394064111431449</v>
       </c>
     </row>
@@ -10733,7 +10733,7 @@
         <v>75.016999999999996</v>
       </c>
       <c r="H288" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.39315248543663434</v>
       </c>
     </row>
@@ -10751,7 +10751,7 @@
         <v>38.968000000000004</v>
       </c>
       <c r="H289" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.37741828782590836</v>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
         <v>288.48500000000001</v>
       </c>
       <c r="H290" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.81787600741806332</v>
       </c>
     </row>
@@ -10787,7 +10787,7 @@
         <v>146.66999999999999</v>
       </c>
       <c r="H291" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.80433953773777866</v>
       </c>
     </row>
@@ -10805,7 +10805,7 @@
         <v>75.781000000000006</v>
       </c>
       <c r="H292" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.77837769361713349</v>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
         <v>39.292000000000002</v>
       </c>
       <c r="H293" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.7486122284434491</v>
       </c>
     </row>
@@ -10841,7 +10841,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="H294" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>2.968633962264151E-2</v>
       </c>
     </row>
@@ -10859,7 +10859,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="H295" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>5.1586098360655738E-2</v>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="H296" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.11654637037037038</v>
       </c>
     </row>
@@ -10895,7 +10895,7 @@
         <v>59.258000000000003</v>
       </c>
       <c r="H297" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.15928178473792565</v>
       </c>
     </row>
@@ -10913,7 +10913,7 @@
         <v>59.804000000000002</v>
       </c>
       <c r="H298" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.31565514012440637</v>
       </c>
     </row>
@@ -10931,7 +10931,7 @@
         <v>61.216999999999999</v>
       </c>
       <c r="H299" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0.61673848767499218</v>
       </c>
     </row>

--- a/results/inference/server/DeepBench_NV_TitanXp.xlsx
+++ b/results/inference/server/DeepBench_NV_TitanXp.xlsx
@@ -694,7 +694,7 @@
   <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1372,11 +1372,11 @@
         <v>2</v>
       </c>
       <c r="I26" s="3">
-        <v>1.07</v>
+        <v>1.1890000000000001</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="0"/>
-        <v>35.279192523364486</v>
+        <v>31.748306139613121</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1518,11 +1518,11 @@
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="3">
-        <v>2.0950000000000002</v>
+        <v>2.2370000000000001</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="0"/>
-        <v>36.036979474940338</v>
+        <v>33.749428699150641</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -1694,11 +1694,11 @@
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="3">
-        <v>1.9690000000000001</v>
+        <v>3.7080000000000002</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="0"/>
-        <v>43.135934992381912</v>
+        <v>22.905786407766989</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -1784,11 +1784,11 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="0"/>
-        <v>0.54708313043478263</v>
+        <v>0.66225852631578941</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="3">
-        <v>4.5999999999999999E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="0"/>
-        <v>1.0941662608695653</v>
+        <v>1.2905550769230769</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -1964,11 +1964,11 @@
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="3">
-        <v>6.6000000000000003E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="0"/>
-        <v>1.5252014545454544</v>
+        <v>1.7975588571428571</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -9081,7 +9081,7 @@
         <v>28</v>
       </c>
       <c r="Q207" s="3">
-        <f t="shared" ref="Q207:Q238" si="14">(2*O207*P207*E207*F207*G207*I207*H207)/(N207/1000)/10^12</f>
+        <f t="shared" ref="Q207:Q217" si="14">(2*O207*P207*E207*F207*G207*I207*H207)/(N207/1000)/10^12</f>
         <v>10.276044799999999</v>
       </c>
       <c r="R207">
